--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\Uni\4. FS\Biochemie Praktikum\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D0F20-FAF2-45B1-925D-CEB05296E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496A008-B6B1-4BFA-999E-A77FF89C1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Reaktionsrate  mM NADPH/s</t>
   </si>
   <si>
-    <t>Fehler Reaktionsrate  mM NADPH/s</t>
-  </si>
-  <si>
     <t>0mM ATP</t>
   </si>
   <si>
@@ -649,7 +646,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -793,6 +790,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,17 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14723,8 +14720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP156" sqref="AP156"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N200" sqref="N200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14948,42 +14945,42 @@
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="S32" s="8" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="S32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
@@ -23728,42 +23725,42 @@
       </c>
     </row>
     <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10" t="s">
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
-      <c r="Z107" s="10"/>
-      <c r="AA107" s="10"/>
-      <c r="AB107" s="10"/>
-      <c r="AC107" s="10"/>
-      <c r="AD107" s="10"/>
-      <c r="AE107" s="10"/>
-      <c r="AF107" s="10"/>
-      <c r="AG107" s="10"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13"/>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
     </row>
     <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B108" s="5">
@@ -27056,42 +27053,42 @@
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10" t="s">
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S134" s="10"/>
-      <c r="T134" s="10"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="10"/>
-      <c r="W134" s="10"/>
-      <c r="X134" s="10"/>
-      <c r="Y134" s="10"/>
-      <c r="Z134" s="10"/>
-      <c r="AA134" s="10"/>
-      <c r="AB134" s="10"/>
-      <c r="AC134" s="10"/>
-      <c r="AD134" s="10"/>
-      <c r="AE134" s="10"/>
-      <c r="AF134" s="10"/>
-      <c r="AG134" s="10"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
+      <c r="Y134" s="13"/>
+      <c r="Z134" s="13"/>
+      <c r="AA134" s="13"/>
+      <c r="AB134" s="13"/>
+      <c r="AC134" s="13"/>
+      <c r="AD134" s="13"/>
+      <c r="AE134" s="13"/>
+      <c r="AF134" s="13"/>
+      <c r="AG134" s="13"/>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B135" s="5">
@@ -30384,42 +30381,42 @@
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="10"/>
-      <c r="O160" s="10"/>
-      <c r="P160" s="10"/>
-      <c r="Q160" s="10"/>
-      <c r="R160" s="10" t="s">
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="13"/>
+      <c r="R160" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S160" s="10"/>
-      <c r="T160" s="10"/>
-      <c r="U160" s="10"/>
-      <c r="V160" s="10"/>
-      <c r="W160" s="10"/>
-      <c r="X160" s="10"/>
-      <c r="Y160" s="10"/>
-      <c r="Z160" s="10"/>
-      <c r="AA160" s="10"/>
-      <c r="AB160" s="10"/>
-      <c r="AC160" s="10"/>
-      <c r="AD160" s="10"/>
-      <c r="AE160" s="10"/>
-      <c r="AF160" s="10"/>
-      <c r="AG160" s="10"/>
+      <c r="S160" s="13"/>
+      <c r="T160" s="13"/>
+      <c r="U160" s="13"/>
+      <c r="V160" s="13"/>
+      <c r="W160" s="13"/>
+      <c r="X160" s="13"/>
+      <c r="Y160" s="13"/>
+      <c r="Z160" s="13"/>
+      <c r="AA160" s="13"/>
+      <c r="AB160" s="13"/>
+      <c r="AC160" s="13"/>
+      <c r="AD160" s="13"/>
+      <c r="AE160" s="13"/>
+      <c r="AF160" s="13"/>
+      <c r="AG160" s="13"/>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B161" s="5">
@@ -31592,7 +31589,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <f t="shared" ref="C170:AG170" si="131">C137/(6.22*0.78)</f>
+        <f t="shared" ref="C170:Q170" si="131">C137/(6.22*0.78)</f>
         <v>0</v>
       </c>
       <c r="D170">
@@ -31725,7 +31722,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <f t="shared" ref="C171:AG171" si="133">C140/(6.22*0.78)</f>
+        <f t="shared" ref="C171:Q171" si="133">C140/(6.22*0.78)</f>
         <v>3.3459745180211406E-3</v>
       </c>
       <c r="D171">
@@ -31858,7 +31855,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <f t="shared" ref="C172:AG172" si="135">C143/(6.22*0.78)</f>
+        <f t="shared" ref="C172:Q172" si="135">C143/(6.22*0.78)</f>
         <v>3.1913837240996842E-3</v>
       </c>
       <c r="D172">
@@ -31991,7 +31988,7 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <f t="shared" ref="C173:AG173" si="137">C146/(6.22*0.78)</f>
+        <f t="shared" ref="C173:Q173" si="137">C146/(6.22*0.78)</f>
         <v>2.597077219419468E-3</v>
       </c>
       <c r="D173">
@@ -32124,7 +32121,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:AG174" si="139">C149/(6.22*0.78)</f>
+        <f t="shared" ref="C174:Q174" si="139">C149/(6.22*0.78)</f>
         <v>5.462113862563546E-3</v>
       </c>
       <c r="D174">
@@ -32257,7 +32254,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <f t="shared" ref="C175:AG175" si="141">C152/(6.22*0.78)</f>
+        <f t="shared" ref="C175:Q175" si="141">C152/(6.22*0.78)</f>
         <v>3.9505880994264971E-3</v>
       </c>
       <c r="D175">
@@ -32390,7 +32387,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <f t="shared" ref="C176:AG176" si="143">C155/(6.22*0.78)</f>
+        <f t="shared" ref="C176:Q176" si="143">C155/(6.22*0.78)</f>
         <v>3.0161849195102044E-3</v>
       </c>
       <c r="D176">
@@ -32523,7 +32520,7 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <f t="shared" ref="C177:AG177" si="145">C158/(6.22*0.78)</f>
+        <f t="shared" ref="C177:Q177" si="145">C158/(6.22*0.78)</f>
         <v>2.4184461352450832E-3</v>
       </c>
       <c r="D177">
@@ -32656,7 +32653,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <f t="shared" ref="C178:AG178" si="147">C138/(6.22*0.78)</f>
+        <f t="shared" ref="C178:Q178" si="147">C138/(6.22*0.78)</f>
         <v>0</v>
       </c>
       <c r="D178">
@@ -32789,7 +32786,7 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <f t="shared" ref="C179:AG179" si="149">C141/(6.22*0.78)</f>
+        <f t="shared" ref="C179:Q179" si="149">C141/(6.22*0.78)</f>
         <v>-1.9581193424271715E-4</v>
       </c>
       <c r="D179">
@@ -32922,7 +32919,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:AG180" si="151">C144/(6.22*0.78)</f>
+        <f t="shared" ref="C180:Q180" si="151">C144/(6.22*0.78)</f>
         <v>2.9577880481058238E-3</v>
       </c>
       <c r="D180">
@@ -33055,7 +33052,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <f t="shared" ref="C181:AG181" si="153">C147/(6.22*0.78)</f>
+        <f t="shared" ref="C181:Q181" si="153">C147/(6.22*0.78)</f>
         <v>3.5177400192286734E-3</v>
       </c>
       <c r="D181">
@@ -33188,7 +33185,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <f t="shared" ref="C182:AG182" si="155">C150/(6.22*0.78)</f>
+        <f t="shared" ref="C182:Q182" si="155">C150/(6.22*0.78)</f>
         <v>4.4727512098129913E-3</v>
       </c>
       <c r="D182">
@@ -33321,7 +33318,7 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <f t="shared" ref="C183:AG183" si="157">C153/(6.22*0.78)</f>
+        <f t="shared" ref="C183:Q183" si="157">C153/(6.22*0.78)</f>
         <v>5.6682308259373175E-3</v>
       </c>
       <c r="D183">
@@ -33454,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <f t="shared" ref="C184:AG184" si="159">C156/(6.22*0.78)</f>
+        <f t="shared" ref="C184:Q184" si="159">C156/(6.22*0.78)</f>
         <v>2.0405636706637784E-3</v>
       </c>
       <c r="D184">
@@ -33587,7 +33584,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <f t="shared" ref="C185:AG185" si="161">C159/(6.22*0.78)</f>
+        <f t="shared" ref="C185:R185" si="161">C159/(6.22*0.78)</f>
         <v>2.1642363058009435E-3</v>
       </c>
       <c r="D185">
@@ -33712,66 +33709,58 @@
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
-      <c r="O186" s="12"/>
-      <c r="P186" s="12"/>
-      <c r="Q186" s="12"/>
-      <c r="R186" s="10"/>
-      <c r="S186" s="10"/>
-      <c r="T186" s="10"/>
-      <c r="U186" s="10"/>
-      <c r="V186" s="10"/>
-      <c r="W186" s="10"/>
-      <c r="X186" s="10"/>
-      <c r="Y186" s="10"/>
-      <c r="Z186" s="10"/>
-      <c r="AA186" s="10"/>
-      <c r="AB186" s="10"/>
-      <c r="AC186" s="10"/>
-      <c r="AD186" s="10"/>
-      <c r="AE186" s="10"/>
-      <c r="AF186" s="10"/>
-      <c r="AG186" s="10"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+      <c r="Q186" s="8"/>
+      <c r="R186" s="13"/>
+      <c r="S186" s="13"/>
+      <c r="T186" s="13"/>
+      <c r="U186" s="13"/>
+      <c r="V186" s="13"/>
+      <c r="W186" s="13"/>
+      <c r="X186" s="13"/>
+      <c r="Y186" s="13"/>
+      <c r="Z186" s="13"/>
+      <c r="AA186" s="13"/>
+      <c r="AB186" s="13"/>
+      <c r="AC186" s="13"/>
+      <c r="AD186" s="13"/>
+      <c r="AE186" s="13"/>
+      <c r="AF186" s="13"/>
+      <c r="AG186" s="13"/>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A187" s="16" t="s">
-        <v>171</v>
+      <c r="A187" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="D187" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
@@ -33799,626 +33788,554 @@
       <c r="AG187" s="5"/>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A188" s="15">
+      <c r="A188" s="11">
         <v>0</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="7">
         <f>SLOPE(B162:Q162,$B$161:$Q$161)</f>
         <v>0</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="7">
         <f>SLOPE(B170:Q170,$B$161:$Q$161)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="7">
         <f>SLOPE(B178:Q178,$B$161:$Q$161)</f>
         <v>0</v>
       </c>
-      <c r="E188" s="11">
-        <f>AVERAGE(R162:AG162)</f>
-        <v>1.411023834041205E-3</v>
-      </c>
-      <c r="F188" s="11">
-        <f>AVERAGE(R170:AG170)</f>
-        <v>6.7665896545770843E-3</v>
-      </c>
-      <c r="G188" s="11">
-        <f>AVERAGE(R178:AG178)</f>
-        <v>1.0469666123399656E-2</v>
-      </c>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
-      <c r="P188" s="11"/>
-      <c r="Q188" s="11"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A189" s="15">
+      <c r="A189" s="11">
         <v>0.25</v>
       </c>
-      <c r="B189" s="11">
+      <c r="B189" s="7">
         <f>SLOPE(B163:Q163,$B$161:$Q$161)</f>
         <v>8.2310961232144069E-5</v>
       </c>
-      <c r="C189" s="11">
+      <c r="C189" s="7">
         <f t="shared" ref="C189:C195" si="163">SLOPE(B171:Q171,$B$161:$Q$161)</f>
         <v>7.6424826954288411E-5</v>
       </c>
-      <c r="D189" s="11">
+      <c r="D189" s="7">
         <f t="shared" ref="D189:D195" si="164">SLOPE(B179:Q179,$B$161:$Q$161)</f>
         <v>3.7706127734992981E-5</v>
       </c>
-      <c r="E189" s="11">
-        <f>AVERAGE(R163:AG163)</f>
-        <v>1.1804014413343876E-3</v>
-      </c>
-      <c r="F189" s="11">
-        <f>AVERAGE(R171:AG171)</f>
-        <v>1.2989155119476996E-2</v>
-      </c>
-      <c r="G189" s="11">
-        <f>AVERAGE(R179:AG179)</f>
-        <v>1.6315852300487269E-2</v>
-      </c>
-      <c r="I189" s="11"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="11"/>
-      <c r="L189" s="11"/>
-      <c r="M189" s="11"/>
-      <c r="N189" s="11"/>
-      <c r="O189" s="11"/>
-      <c r="P189" s="11"/>
-      <c r="Q189" s="11"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A190" s="15">
+      <c r="A190" s="11">
         <v>0.5</v>
       </c>
-      <c r="B190" s="11">
-        <f t="shared" ref="B189:B195" si="165">SLOPE(B164:Q164,$B$161:$Q$161)</f>
+      <c r="B190" s="7">
+        <f t="shared" ref="B190:B194" si="165">SLOPE(B164:Q164,$B$161:$Q$161)</f>
         <v>1.3877202506865807E-4</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="7">
         <f t="shared" si="163"/>
         <v>1.0332114762069779E-4</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="7">
         <f t="shared" si="164"/>
         <v>3.638429772751105E-5</v>
       </c>
-      <c r="E190" s="11">
-        <f>AVERAGE(R164:AG164)</f>
-        <v>5.1187085952974949E-3</v>
-      </c>
-      <c r="F190" s="11">
-        <f>AVERAGE(R172:AG172)</f>
-        <v>1.2919101328417648E-2</v>
-      </c>
-      <c r="G190" s="11">
-        <f>AVERAGE(R180:AG180)</f>
-        <v>1.208583066983872E-2</v>
-      </c>
-      <c r="I190" s="11"/>
-      <c r="J190" s="11"/>
-      <c r="K190" s="11"/>
-      <c r="L190" s="11"/>
-      <c r="M190" s="11"/>
-      <c r="N190" s="11"/>
-      <c r="O190" s="11"/>
-      <c r="P190" s="11"/>
-      <c r="Q190" s="11"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A191" s="15">
+      <c r="A191" s="11">
         <v>1</v>
       </c>
-      <c r="B191" s="11">
+      <c r="B191" s="7">
         <f t="shared" si="165"/>
         <v>2.1929899430917334E-4</v>
       </c>
-      <c r="C191" s="11">
+      <c r="C191" s="7">
         <f t="shared" si="163"/>
         <v>1.1144662467556151E-4</v>
       </c>
-      <c r="D191" s="11">
+      <c r="D191" s="7">
         <f t="shared" si="164"/>
         <v>6.1773974200472767E-5</v>
       </c>
-      <c r="E191" s="11">
-        <f>AVERAGE(R165:AG165)</f>
-        <v>1.3917207889242025E-2</v>
-      </c>
-      <c r="F191" s="11">
-        <f>AVERAGE(R173:AG173)</f>
-        <v>8.3421792689037863E-3</v>
-      </c>
-      <c r="G191" s="11">
-        <f>AVERAGE(R181:AG181)</f>
-        <v>3.512201848011663E-3</v>
-      </c>
-      <c r="I191" s="11"/>
-      <c r="J191" s="11"/>
-      <c r="K191" s="11"/>
-      <c r="L191" s="11"/>
-      <c r="M191" s="11"/>
-      <c r="N191" s="11"/>
-      <c r="O191" s="11"/>
-      <c r="P191" s="11"/>
-      <c r="Q191" s="11"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A192" s="15">
+      <c r="A192" s="11">
         <v>2</v>
       </c>
-      <c r="B192" s="11">
+      <c r="B192" s="7">
         <f t="shared" si="165"/>
         <v>2.0796976571816188E-4</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="7">
         <f t="shared" si="163"/>
         <v>6.8901702432589684E-5</v>
       </c>
-      <c r="D192" s="11">
+      <c r="D192" s="7">
         <f t="shared" si="164"/>
         <v>6.1066202904346619E-5</v>
       </c>
-      <c r="E192" s="11">
-        <f>AVERAGE(R166:AG166)</f>
-        <v>1.6572231005504545E-2</v>
-      </c>
-      <c r="F192" s="11">
-        <f>AVERAGE(R174:AG174)</f>
-        <v>3.7065382651116537E-2</v>
-      </c>
-      <c r="G192" s="11">
-        <f>AVERAGE(R182:AG182)</f>
-        <v>4.5793368061402264E-3</v>
-      </c>
-      <c r="I192" s="11"/>
-      <c r="J192" s="11"/>
-      <c r="K192" s="11"/>
-      <c r="L192" s="11"/>
-      <c r="M192" s="11"/>
-      <c r="N192" s="11"/>
-      <c r="O192" s="11"/>
-      <c r="P192" s="11"/>
-      <c r="Q192" s="11"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A193" s="15">
+      <c r="A193" s="11">
         <v>5</v>
       </c>
-      <c r="B193" s="11">
+      <c r="B193" s="7">
         <f t="shared" si="165"/>
         <v>1.9650144609349769E-4</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="7">
         <f t="shared" si="163"/>
         <v>7.0465433323288246E-5</v>
       </c>
-      <c r="D193" s="11">
+      <c r="D193" s="7">
         <f t="shared" si="164"/>
         <v>5.5308553072597458E-5</v>
       </c>
-      <c r="E193" s="11">
-        <f>AVERAGE(R167:AG167)</f>
-        <v>6.1715090855032923E-3</v>
-      </c>
-      <c r="F193" s="11">
-        <f>AVERAGE(R175:AG175)</f>
-        <v>5.9407395415131221E-3</v>
-      </c>
-      <c r="G193" s="11">
-        <f>AVERAGE(R183:AG183)</f>
-        <v>1.5748105557402185E-2</v>
-      </c>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="11"/>
-      <c r="Q193" s="11"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A194" s="15">
+      <c r="A194" s="11">
         <v>7</v>
       </c>
-      <c r="B194" s="11">
+      <c r="B194" s="7">
         <f t="shared" si="165"/>
         <v>1.7517501290123882E-4</v>
       </c>
-      <c r="C194" s="11">
+      <c r="C194" s="7">
         <f t="shared" si="163"/>
         <v>6.7675269156013007E-5</v>
       </c>
-      <c r="D194" s="11">
+      <c r="D194" s="7">
         <f t="shared" si="164"/>
         <v>4.7569883214723198E-5</v>
       </c>
-      <c r="E194" s="11">
-        <f>AVERAGE(R168:AG168)</f>
-        <v>1.8680114841197155E-2</v>
-      </c>
-      <c r="F194" s="11">
-        <f>AVERAGE(R176:AG176)</f>
-        <v>4.2382250715552669E-3</v>
-      </c>
-      <c r="G194" s="11">
-        <f>AVERAGE(R184:AG184)</f>
-        <v>2.3365076361140098E-3</v>
-      </c>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
-      <c r="Q194" s="11"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A195" s="15">
+      <c r="A195" s="11">
         <v>10</v>
       </c>
-      <c r="B195" s="11">
+      <c r="B195" s="7">
         <f>SLOPE(B169:Q169,$B$161:$Q$161)</f>
         <v>1.9011179997378887E-4</v>
       </c>
-      <c r="C195" s="11">
+      <c r="C195" s="7">
         <f t="shared" si="163"/>
         <v>4.4206997873103683E-5</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="7">
         <f t="shared" si="164"/>
         <v>4.3705680871439547E-5</v>
       </c>
-      <c r="E195" s="11">
-        <f>AVERAGE(R169:AG169)</f>
-        <v>9.8700929176381604E-3</v>
-      </c>
-      <c r="F195" s="11">
-        <f>AVERAGE(R177:AG177)</f>
-        <v>1.3355425201942241E-2</v>
-      </c>
-      <c r="G195" s="11">
-        <f>AVERAGE(R185:AG185)</f>
-        <v>6.943014918109937E-3</v>
-      </c>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11"/>
-      <c r="M195" s="11"/>
-      <c r="N195" s="11"/>
-      <c r="O195" s="11"/>
-      <c r="P195" s="11"/>
-      <c r="Q195" s="11"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A196" s="15"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
-      <c r="L196" s="11"/>
-      <c r="M196" s="11"/>
-      <c r="N196" s="11"/>
-      <c r="O196" s="11"/>
-      <c r="P196" s="11"/>
-      <c r="Q196" s="11"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A197" s="14"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
-      <c r="M197" s="11"/>
-      <c r="N197" s="11"/>
-      <c r="O197" s="11"/>
-      <c r="P197" s="11"/>
-      <c r="Q197" s="11"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A198" s="14"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="11"/>
-      <c r="L198" s="11"/>
-      <c r="M198" s="11"/>
-      <c r="N198" s="11"/>
-      <c r="O198" s="11"/>
-      <c r="P198" s="11"/>
-      <c r="Q198" s="11"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="7"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A199" s="14"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="11"/>
-      <c r="L199" s="11"/>
-      <c r="M199" s="11"/>
-      <c r="N199" s="11"/>
-      <c r="O199" s="11"/>
-      <c r="P199" s="11"/>
-      <c r="Q199" s="11"/>
+      <c r="A199" s="10"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A200" s="14"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="M200" s="11"/>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="Q200" s="11"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A201" s="14"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="11"/>
-      <c r="L201" s="11"/>
-      <c r="M201" s="11"/>
-      <c r="N201" s="11"/>
-      <c r="O201" s="11"/>
-      <c r="P201" s="11"/>
-      <c r="Q201" s="11"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="7"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A202" s="14"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="11"/>
-      <c r="L202" s="11"/>
-      <c r="M202" s="11"/>
-      <c r="N202" s="11"/>
-      <c r="O202" s="11"/>
-      <c r="P202" s="11"/>
-      <c r="Q202" s="11"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="7"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
+      <c r="M202" s="7"/>
+      <c r="N202" s="7"/>
+      <c r="O202" s="7"/>
+      <c r="P202" s="7"/>
+      <c r="Q202" s="7"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A203" s="14"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="11"/>
-      <c r="L203" s="11"/>
-      <c r="M203" s="11"/>
-      <c r="N203" s="11"/>
-      <c r="O203" s="11"/>
-      <c r="P203" s="11"/>
-      <c r="Q203" s="11"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="7"/>
+      <c r="O203" s="7"/>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="7"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A204" s="13"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="11"/>
-      <c r="L204" s="11"/>
-      <c r="M204" s="11"/>
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
-      <c r="P204" s="11"/>
-      <c r="Q204" s="11"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="7"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A205" s="13"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="11"/>
-      <c r="L205" s="11"/>
-      <c r="M205" s="11"/>
-      <c r="N205" s="11"/>
-      <c r="O205" s="11"/>
-      <c r="P205" s="11"/>
-      <c r="Q205" s="11"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
+      <c r="N205" s="7"/>
+      <c r="O205" s="7"/>
+      <c r="P205" s="7"/>
+      <c r="Q205" s="7"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A206" s="13"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="11"/>
-      <c r="M206" s="11"/>
-      <c r="N206" s="11"/>
-      <c r="O206" s="11"/>
-      <c r="P206" s="11"/>
-      <c r="Q206" s="11"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="7"/>
+      <c r="N206" s="7"/>
+      <c r="O206" s="7"/>
+      <c r="P206" s="7"/>
+      <c r="Q206" s="7"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A207" s="13"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="11"/>
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
-      <c r="P207" s="11"/>
-      <c r="Q207" s="11"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
+      <c r="M207" s="7"/>
+      <c r="N207" s="7"/>
+      <c r="O207" s="7"/>
+      <c r="P207" s="7"/>
+      <c r="Q207" s="7"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A208" s="13"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="11"/>
-      <c r="L208" s="11"/>
-      <c r="M208" s="11"/>
-      <c r="N208" s="11"/>
-      <c r="O208" s="11"/>
-      <c r="P208" s="11"/>
-      <c r="Q208" s="11"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
+      <c r="M208" s="7"/>
+      <c r="N208" s="7"/>
+      <c r="O208" s="7"/>
+      <c r="P208" s="7"/>
+      <c r="Q208" s="7"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A209" s="13"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="11"/>
-      <c r="N209" s="11"/>
-      <c r="O209" s="11"/>
-      <c r="P209" s="11"/>
-      <c r="Q209" s="11"/>
+      <c r="A209" s="9"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="7"/>
+      <c r="K209" s="7"/>
+      <c r="L209" s="7"/>
+      <c r="M209" s="7"/>
+      <c r="N209" s="7"/>
+      <c r="O209" s="7"/>
+      <c r="P209" s="7"/>
+      <c r="Q209" s="7"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A210" s="13"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="11"/>
-      <c r="N210" s="11"/>
-      <c r="O210" s="11"/>
-      <c r="P210" s="11"/>
-      <c r="Q210" s="11"/>
+      <c r="A210" s="9"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
+      <c r="K210" s="7"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="7"/>
+      <c r="N210" s="7"/>
+      <c r="O210" s="7"/>
+      <c r="P210" s="7"/>
+      <c r="Q210" s="7"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A211" s="13"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
-      <c r="M211" s="11"/>
-      <c r="N211" s="11"/>
-      <c r="O211" s="11"/>
-      <c r="P211" s="11"/>
-      <c r="Q211" s="11"/>
+      <c r="A211" s="9"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+      <c r="N211" s="7"/>
+      <c r="O211" s="7"/>
+      <c r="P211" s="7"/>
+      <c r="Q211" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="E186:G186"/>
     <mergeCell ref="B32:Q32"/>
     <mergeCell ref="S32:AH32"/>
     <mergeCell ref="B107:Q107"/>
     <mergeCell ref="R107:AG107"/>
     <mergeCell ref="B134:Q134"/>
     <mergeCell ref="R134:AG134"/>
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="E186:G186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\Uni\4. FS\Biochemie Praktikum\Biochemie\Tag 4 Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496A008-B6B1-4BFA-999E-A77FF89C1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82228494-79F4-4F18-B065-3C617BB9BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -798,9 +798,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,6 +805,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2281,7 +2281,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2319,7 +2319,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672260095"/>
@@ -2399,7 +2399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2437,7 +2437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672245951"/>
@@ -2479,7 +2479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2516,7 +2516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2597,7 +2597,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3979,7 +3979,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4017,7 +4017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672272575"/>
@@ -4101,7 +4101,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4139,7 +4139,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672268831"/>
@@ -4181,7 +4181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4218,7 +4218,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4299,7 +4299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5681,7 +5681,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5719,7 +5719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877873759"/>
@@ -5804,7 +5804,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5842,7 +5842,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877858783"/>
@@ -5884,7 +5884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5921,7 +5921,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6002,7 +6002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6052,6 +6052,158 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet0!$R$136:$AG$136</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5538711190566652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6205002830515272E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3066124526176132E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.9935743584305047E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.870409505202406E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.5447849311944511E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.6558309661137652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.7231462184379962E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.747001300457552E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.4964715350467623E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.2136206663650287E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.7272218615362124E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.1842386953770822E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.4786810349740575E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6.4156068038873394E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet0!$R$136:$AG$136</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5538711190566652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6205002830515272E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.3066124526176132E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.9935743584305047E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.870409505202406E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.5447849311944511E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.6558309661137652E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.7231462184379962E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.747001300457552E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.4964715350467623E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.2136206663650287E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.7272218615362124E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.1842386953770822E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.4786810349740575E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6.4156068038873394E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet0!$B$135:$Q$135</c:f>
@@ -6535,6 +6687,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet0!$B$135:$Q$135</c:f>
@@ -7384,7 +7592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7422,7 +7630,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672242207"/>
@@ -7502,7 +7710,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7540,7 +7748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672267999"/>
@@ -7582,7 +7790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7619,7 +7827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7710,7 +7918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8243,6 +8451,159 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet0!$R$145:$AG$145</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2072705381666408E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4157884781410559E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3872667438446309E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2087689234108973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0205636637675667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8058746541100333E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.4923703294364574E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1380218001635326E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.7786596213191977E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.3782072353040069E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.8725837079115535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.3195681234634425E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.8540959572239711E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.10256813471382235</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.10693242716602146</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet0!$R$145:$AG$145</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2072705381666408E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4157884781410559E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3872667438446309E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2087689234108973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0205636637675667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8058746541100333E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.4923703294364574E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1380218001635326E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.7786596213191977E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.3782072353040069E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.8725837079115535E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.3195681234634425E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.8540959572239711E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.10256813471382235</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.10693242716602146</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet0!$B$135:$Q$135</c:f>
@@ -9092,7 +9453,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9130,7 +9491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877851295"/>
@@ -9211,7 +9572,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9249,7 +9610,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877854207"/>
@@ -9291,7 +9652,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9328,7 +9689,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9414,7 +9775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10796,7 +11157,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10834,7 +11195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49543583"/>
@@ -10916,7 +11277,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10954,7 +11315,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49539423"/>
@@ -10996,7 +11357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11033,7 +11394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14181,15 +14542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>330993</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>557778</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>80509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330993</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:colOff>557778</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>109085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14216,16 +14577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>411956</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>7144</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330313</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>25287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>411956</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330313</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14252,16 +14613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>488157</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>122632</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>442799</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>68204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>8332</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419552</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>135332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14720,17 +15081,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N200" sqref="N200"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="8.06640625" customWidth="1"/>
-    <col min="19" max="19" width="6.1328125" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" customWidth="1"/>
+    <col min="19" max="19" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14738,7 +15099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14749,7 +15110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14757,7 +15118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +15126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -14773,7 +15134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -14781,7 +15142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -14789,7 +15150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -14797,12 +15158,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -14818,7 +15179,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -14834,7 +15195,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -14850,17 +15211,17 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -14868,7 +15229,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -14876,7 +15237,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -14884,7 +15245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -14895,7 +15256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14906,7 +15267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -14914,7 +15275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -14925,7 +15286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -14933,7 +15294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -14941,48 +15302,48 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="S32" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="S32" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -15084,7 +15445,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -15204,7 +15565,7 @@
         <v>4.6200007200241089E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -15324,7 +15685,7 @@
         <v>3.540000319480896E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -15444,7 +15805,7 @@
         <v>3.4800007939338684E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -15564,7 +15925,7 @@
         <v>0.14749999344348907</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -15684,7 +16045,7 @@
         <v>0.13500000536441803</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -15804,7 +16165,7 @@
         <v>0.14619998633861542</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -15924,7 +16285,7 @@
         <v>0.1283000111579895</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -16044,7 +16405,7 @@
         <v>0.16079999506473541</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -16164,7 +16525,7 @@
         <v>0.12950000166893005</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -16284,7 +16645,7 @@
         <v>0.49729996919631958</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -16404,7 +16765,7 @@
         <v>0.30149999260902405</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -16524,7 +16885,7 @@
         <v>0.3976999819278717</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -16644,7 +17005,7 @@
         <v>0.32539999485015869</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -16764,7 +17125,7 @@
         <v>0.46560001373291016</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -16884,7 +17245,7 @@
         <v>0.62019997835159302</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -17004,7 +17365,7 @@
         <v>0.32559996843338013</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -17124,7 +17485,7 @@
         <v>0.26489996910095215</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -17244,7 +17605,7 @@
         <v>0.23610001802444458</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -17364,7 +17725,7 @@
         <v>0.46180003881454468</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -17484,7 +17845,7 @@
         <v>0.81109997630119324</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -17604,7 +17965,7 @@
         <v>0.66640001535415649</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -17724,7 +18085,7 @@
         <v>0.51339997351169586</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -17844,7 +18205,7 @@
         <v>0.49180002510547638</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
@@ -17964,7 +18325,7 @@
         <v>0.64399999380111694</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
@@ -18084,7 +18445,7 @@
         <v>0.26520001888275146</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -18204,7 +18565,7 @@
         <v>0.20140001177787781</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
@@ -18324,7 +18685,7 @@
         <v>0.31499998271465302</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -18444,7 +18805,7 @@
         <v>0.8893999457359314</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>66</v>
       </c>
@@ -18564,7 +18925,7 @@
         <v>0.93120002746582031</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
@@ -18684,7 +19045,7 @@
         <v>1.0916000604629517</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>68</v>
       </c>
@@ -18804,7 +19165,7 @@
         <v>0.69689998030662537</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
@@ -18924,7 +19285,7 @@
         <v>0.4966999888420105</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>70</v>
       </c>
@@ -19044,7 +19405,7 @@
         <v>0.63359999656677246</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>71</v>
       </c>
@@ -19164,7 +19525,7 @@
         <v>0.42549997568130493</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
@@ -19284,7 +19645,7 @@
         <v>0.37070000171661377</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
@@ -19404,7 +19765,7 @@
         <v>0.3767000138759613</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>74</v>
       </c>
@@ -19524,7 +19885,7 @@
         <v>0.60040000081062317</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -19644,7 +20005,7 @@
         <v>0.94280004501342773</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>76</v>
       </c>
@@ -19764,7 +20125,7 @@
         <v>1.2834999859333038</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>77</v>
       </c>
@@ -19884,7 +20245,7 @@
         <v>0.40209999680519104</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>78</v>
       </c>
@@ -20004,7 +20365,7 @@
         <v>0.48459997773170471</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>79</v>
       </c>
@@ -20124,7 +20485,7 @@
         <v>0.46299999952316284</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
@@ -20244,7 +20605,7 @@
         <v>0.40410000085830688</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>81</v>
       </c>
@@ -20364,7 +20725,7 @@
         <v>0.40390001237392426</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
@@ -20484,7 +20845,7 @@
         <v>0.38969996571540833</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
@@ -20604,7 +20965,7 @@
         <v>0.84519997239112854</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -20724,7 +21085,7 @@
         <v>0.84869995713233948</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>85</v>
       </c>
@@ -20844,7 +21205,7 @@
         <v>1.0161999762058258</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>86</v>
       </c>
@@ -20964,7 +21325,7 @@
         <v>0.59079998731613159</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>87</v>
       </c>
@@ -21084,7 +21445,7 @@
         <v>0.37459999322891235</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>88</v>
       </c>
@@ -21204,7 +21565,7 @@
         <v>0.40329998731613159</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>89</v>
       </c>
@@ -21324,7 +21685,7 @@
         <v>0.24699999392032623</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>90</v>
       </c>
@@ -21444,7 +21805,7 @@
         <v>0.53339999914169312</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
@@ -21564,7 +21925,7 @@
         <v>0.36090001463890076</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
@@ -21684,7 +22045,7 @@
         <v>0.76409995555877686</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>93</v>
       </c>
@@ -21804,7 +22165,7 @@
         <v>0.91800004243850708</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
@@ -21924,7 +22285,7 @@
         <v>0.74010005593299866</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>95</v>
       </c>
@@ -22044,7 +22405,7 @@
         <v>0.40960001945495605</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -22164,7 +22525,7 @@
         <v>0.4506000280380249</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>97</v>
       </c>
@@ -22284,7 +22645,7 @@
         <v>0.45669999718666077</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>98</v>
       </c>
@@ -22404,7 +22765,7 @@
         <v>0.30530001223087311</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>99</v>
       </c>
@@ -22524,7 +22885,7 @@
         <v>0.35990001261234283</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>100</v>
       </c>
@@ -22644,7 +23005,7 @@
         <v>0.32759998738765717</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>101</v>
       </c>
@@ -22764,7 +23125,7 @@
         <v>1.0455000400543213</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>102</v>
       </c>
@@ -22884,7 +23245,7 @@
         <v>0.815900057554245</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>103</v>
       </c>
@@ -23004,7 +23365,7 @@
         <v>0.75529998540878296</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>104</v>
       </c>
@@ -23124,7 +23485,7 @@
         <v>0.36609998345375061</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>105</v>
       </c>
@@ -23244,7 +23605,7 @@
         <v>0.33949999511241913</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>106</v>
       </c>
@@ -23364,7 +23725,7 @@
         <v>0.33190000057220459</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -23484,7 +23845,7 @@
         <v>0.2988000214099884</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>108</v>
       </c>
@@ -23604,7 +23965,7 @@
         <v>0.37960003316402435</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>109</v>
       </c>
@@ -23724,45 +24085,45 @@
         <v>0.2718999981880188</v>
       </c>
     </row>
-    <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="13" t="s">
+    <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13" t="s">
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
+      <c r="Z107" s="16"/>
+      <c r="AA107" s="16"/>
+      <c r="AB107" s="16"/>
+      <c r="AC107" s="16"/>
+      <c r="AD107" s="16"/>
+      <c r="AE107" s="16"/>
+      <c r="AF107" s="16"/>
+      <c r="AG107" s="16"/>
     </row>
-    <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="5">
         <v>0</v>
       </c>
@@ -23860,7 +24221,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
@@ -23993,7 +24354,7 @@
         <v>6.4156068038873394E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>113</v>
       </c>
@@ -24126,7 +24487,7 @@
         <v>6.8724000450112489E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -24259,7 +24620,7 @@
         <v>1.8427237619633167E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
@@ -24392,7 +24753,7 @@
         <v>9.7904908151061662E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>116</v>
       </c>
@@ -24525,7 +24886,7 @@
         <v>0.14745859567308361</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>117</v>
       </c>
@@ -24658,7 +25019,7 @@
         <v>4.5687650089435018E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>118</v>
       </c>
@@ -24791,7 +25152,7 @@
         <v>0.17550388192585203</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -24924,7 +25285,7 @@
         <v>8.234860203397748E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>120</v>
       </c>
@@ -25057,7 +25418,7 @@
         <v>5.6943584217300509E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>121</v>
       </c>
@@ -25190,7 +25551,7 @@
         <v>0.10673979561978933</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>122</v>
       </c>
@@ -25323,7 +25684,7 @@
         <v>0.10232997006330193</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>123</v>
       </c>
@@ -25456,7 +25817,7 @@
         <v>3.0056817209650748E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>124</v>
       </c>
@@ -25589,7 +25950,7 @@
         <v>0.34155034516341698</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>125</v>
       </c>
@@ -25722,7 +26083,7 @@
         <v>4.2781647627874224E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>126</v>
       </c>
@@ -25855,7 +26216,7 @@
         <v>8.2567379819416635E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>127</v>
       </c>
@@ -25988,7 +26349,7 @@
         <v>9.7732208600366646E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>128</v>
       </c>
@@ -26121,7 +26482,7 @@
         <v>0.11741832416898711</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>129</v>
       </c>
@@ -26254,7 +26615,7 @@
         <v>0.14419571327652467</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>130</v>
       </c>
@@ -26387,7 +26748,7 @@
         <v>9.6531201451737894E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>131</v>
       </c>
@@ -26520,7 +26881,7 @@
         <v>2.5614508355464968E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -26653,7 +27014,7 @@
         <v>2.7452202592764183E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
@@ -26786,7 +27147,7 @@
         <v>0.1530820000437369</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
@@ -26919,7 +27280,7 @@
         <v>1.7958090682977698E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
@@ -27052,45 +27413,45 @@
         <v>5.6052877836657841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B134" s="13" t="s">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B134" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="13" t="s">
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="S134" s="13"/>
-      <c r="T134" s="13"/>
-      <c r="U134" s="13"/>
-      <c r="V134" s="13"/>
-      <c r="W134" s="13"/>
-      <c r="X134" s="13"/>
-      <c r="Y134" s="13"/>
-      <c r="Z134" s="13"/>
-      <c r="AA134" s="13"/>
-      <c r="AB134" s="13"/>
-      <c r="AC134" s="13"/>
-      <c r="AD134" s="13"/>
-      <c r="AE134" s="13"/>
-      <c r="AF134" s="13"/>
-      <c r="AG134" s="13"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+      <c r="V134" s="16"/>
+      <c r="W134" s="16"/>
+      <c r="X134" s="16"/>
+      <c r="Y134" s="16"/>
+      <c r="Z134" s="16"/>
+      <c r="AA134" s="16"/>
+      <c r="AB134" s="16"/>
+      <c r="AC134" s="16"/>
+      <c r="AD134" s="16"/>
+      <c r="AE134" s="16"/>
+      <c r="AF134" s="16"/>
+      <c r="AG134" s="16"/>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B135" s="5">
         <v>0</v>
       </c>
@@ -27188,7 +27549,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>112</v>
       </c>
@@ -27321,7 +27682,7 @@
         <v>6.4156068038873394E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>113</v>
       </c>
@@ -27454,7 +27815,7 @@
         <v>9.7190413497083763E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>114</v>
       </c>
@@ -27587,7 +27948,7 @@
         <v>2.6060049358756932E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>115</v>
       </c>
@@ -27720,7 +28081,7 @@
         <v>9.8114886998507553E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>116</v>
       </c>
@@ -27853,7 +28214,7 @@
         <v>0.14761865505503233</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>117</v>
       </c>
@@ -27986,7 +28347,7 @@
         <v>4.9263825034045777E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>118</v>
       </c>
@@ -28119,7 +28480,7 @@
         <v>0.17562110517163221</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>119</v>
       </c>
@@ -28252,7 +28613,7 @@
         <v>8.2634872416728941E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>120</v>
       </c>
@@ -28385,7 +28746,7 @@
         <v>5.9850938754569413E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>121</v>
       </c>
@@ -28518,7 +28879,7 @@
         <v>0.10693242716602146</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>122</v>
       </c>
@@ -28651,7 +29012,7 @@
         <v>0.10256048291391251</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
@@ -28784,7 +29145,7 @@
         <v>3.5255855500395693E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>124</v>
       </c>
@@ -28917,7 +29278,7 @@
         <v>0.34161059452527431</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>125</v>
       </c>
@@ -29050,7 +29411,7 @@
         <v>4.3330119502884672E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>126</v>
       </c>
@@ -29183,7 +29544,7 @@
         <v>2.0192493862642671E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>127</v>
       </c>
@@ -29316,7 +29677,7 @@
         <v>9.7942557698722912E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>128</v>
       </c>
@@ -29449,7 +29810,7 @@
         <v>0.11761927024527917</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>129</v>
       </c>
@@ -29582,7 +29943,7 @@
         <v>0.14536838312926278</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>130</v>
       </c>
@@ -29715,7 +30076,7 @@
         <v>9.6744161913668414E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>131</v>
       </c>
@@ -29848,7 +30209,7 @@
         <v>2.6520424594467851E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -29981,7 +30342,7 @@
         <v>3.3063371175435098E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>133</v>
       </c>
@@ -30114,7 +30475,7 @@
         <v>0.15321637885047651</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>134</v>
       </c>
@@ -30247,7 +30608,7 @@
         <v>1.9228179928342699E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>135</v>
       </c>
@@ -30380,45 +30741,45 @@
         <v>5.9004137143608089E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B160" s="13" t="s">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B160" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="13"/>
-      <c r="R160" s="13" t="s">
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="16"/>
+      <c r="Q160" s="16"/>
+      <c r="R160" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="S160" s="13"/>
-      <c r="T160" s="13"/>
-      <c r="U160" s="13"/>
-      <c r="V160" s="13"/>
-      <c r="W160" s="13"/>
-      <c r="X160" s="13"/>
-      <c r="Y160" s="13"/>
-      <c r="Z160" s="13"/>
-      <c r="AA160" s="13"/>
-      <c r="AB160" s="13"/>
-      <c r="AC160" s="13"/>
-      <c r="AD160" s="13"/>
-      <c r="AE160" s="13"/>
-      <c r="AF160" s="13"/>
-      <c r="AG160" s="13"/>
+      <c r="S160" s="16"/>
+      <c r="T160" s="16"/>
+      <c r="U160" s="16"/>
+      <c r="V160" s="16"/>
+      <c r="W160" s="16"/>
+      <c r="X160" s="16"/>
+      <c r="Y160" s="16"/>
+      <c r="Z160" s="16"/>
+      <c r="AA160" s="16"/>
+      <c r="AB160" s="16"/>
+      <c r="AC160" s="16"/>
+      <c r="AD160" s="16"/>
+      <c r="AE160" s="16"/>
+      <c r="AF160" s="16"/>
+      <c r="AG160" s="16"/>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B161" s="5">
         <v>0</v>
       </c>
@@ -30516,7 +30877,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>140</v>
       </c>
@@ -30649,7 +31010,7 @@
         <v>1.3223692810386963E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>141</v>
       </c>
@@ -30782,7 +31143,7 @@
         <v>2.0032651804988821E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>142</v>
       </c>
@@ -30915,7 +31276,7 @@
         <v>5.3714340338768514E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>143</v>
       </c>
@@ -31048,7 +31409,7 @@
         <v>2.0223202036133966E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>144</v>
       </c>
@@ -31181,7 +31542,7 @@
         <v>3.0426798387136678E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>145</v>
       </c>
@@ -31314,7 +31675,7 @@
         <v>1.0154139878400069E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>146</v>
       </c>
@@ -31447,7 +31808,7 @@
         <v>3.6198595344140529E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>147</v>
       </c>
@@ -31580,7 +31941,7 @@
         <v>1.7032499055307307E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>149</v>
       </c>
@@ -31713,7 +32074,7 @@
         <v>1.233633002608818E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>150</v>
       </c>
@@ -31846,7 +32207,7 @@
         <v>2.2040651984092146E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>151</v>
       </c>
@@ -31979,7 +32340,7 @@
         <v>2.1139517461025745E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>152</v>
       </c>
@@ -32112,7 +32473,7 @@
         <v>7.2668512450316785E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>153</v>
       </c>
@@ -32245,7 +32606,7 @@
         <v>7.0411945445888843E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>154</v>
       </c>
@@ -32378,7 +32739,7 @@
         <v>8.9310989164161653E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>155</v>
       </c>
@@ -32511,7 +32872,7 @@
         <v>4.162027756336604E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>156</v>
       </c>
@@ -32644,7 +33005,7 @@
         <v>2.0187681939715332E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>157</v>
       </c>
@@ -32777,7 +33138,7 @@
         <v>2.4243398104806489E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>158</v>
       </c>
@@ -32910,7 +33271,7 @@
         <v>2.996297780716934E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>159</v>
       </c>
@@ -33043,7 +33404,7 @@
         <v>1.9940671513246848E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>160</v>
       </c>
@@ -33176,7 +33537,7 @@
         <v>5.4663254585019068E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>161</v>
       </c>
@@ -33309,7 +33670,7 @@
         <v>6.8149417048880981E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>162</v>
       </c>
@@ -33442,7 +33803,7 @@
         <v>3.1580587610371115E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>163</v>
       </c>
@@ -33575,7 +33936,7 @@
         <v>3.9632657120007211E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>164</v>
       </c>
@@ -33708,16 +34069,16 @@
         <v>1.2161789336220646E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A186" s="13" t="s">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A186" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
@@ -33728,24 +34089,24 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
-      <c r="R186" s="13"/>
-      <c r="S186" s="13"/>
-      <c r="T186" s="13"/>
-      <c r="U186" s="13"/>
-      <c r="V186" s="13"/>
-      <c r="W186" s="13"/>
-      <c r="X186" s="13"/>
-      <c r="Y186" s="13"/>
-      <c r="Z186" s="13"/>
-      <c r="AA186" s="13"/>
-      <c r="AB186" s="13"/>
-      <c r="AC186" s="13"/>
-      <c r="AD186" s="13"/>
-      <c r="AE186" s="13"/>
-      <c r="AF186" s="13"/>
-      <c r="AG186" s="13"/>
+      <c r="R186" s="16"/>
+      <c r="S186" s="16"/>
+      <c r="T186" s="16"/>
+      <c r="U186" s="16"/>
+      <c r="V186" s="16"/>
+      <c r="W186" s="16"/>
+      <c r="X186" s="16"/>
+      <c r="Y186" s="16"/>
+      <c r="Z186" s="16"/>
+      <c r="AA186" s="16"/>
+      <c r="AB186" s="16"/>
+      <c r="AC186" s="16"/>
+      <c r="AD186" s="16"/>
+      <c r="AE186" s="16"/>
+      <c r="AF186" s="16"/>
+      <c r="AG186" s="16"/>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
         <v>170</v>
       </c>
@@ -33787,7 +34148,7 @@
       <c r="AF187" s="5"/>
       <c r="AG187" s="5"/>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>0</v>
       </c>
@@ -33816,7 +34177,7 @@
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>0.25</v>
       </c>
@@ -33845,7 +34206,7 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>0.5</v>
       </c>
@@ -33874,7 +34235,7 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>1</v>
       </c>
@@ -33903,7 +34264,7 @@
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>2</v>
       </c>
@@ -33932,7 +34293,7 @@
       <c r="P192" s="7"/>
       <c r="Q192" s="7"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>5</v>
       </c>
@@ -33961,7 +34322,7 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>7</v>
       </c>
@@ -33990,7 +34351,7 @@
       <c r="P194" s="7"/>
       <c r="Q194" s="7"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>10</v>
       </c>
@@ -34019,7 +34380,7 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -34038,7 +34399,7 @@
       <c r="P196" s="7"/>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -34057,7 +34418,7 @@
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -34076,7 +34437,7 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -34095,7 +34456,7 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -34114,7 +34475,7 @@
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -34133,7 +34494,7 @@
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="10"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -34152,7 +34513,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="10"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -34171,7 +34532,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="9"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -34190,7 +34551,7 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="9"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -34209,7 +34570,7 @@
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="9"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -34228,7 +34589,7 @@
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -34247,7 +34608,7 @@
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="9"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -34266,7 +34627,7 @@
       <c r="P208" s="7"/>
       <c r="Q208" s="7"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="9"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -34285,7 +34646,7 @@
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="9"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -34304,7 +34665,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -34325,17 +34686,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="E186:G186"/>
     <mergeCell ref="B32:Q32"/>
     <mergeCell ref="S32:AH32"/>
     <mergeCell ref="B107:Q107"/>
     <mergeCell ref="R107:AG107"/>
     <mergeCell ref="B134:Q134"/>
     <mergeCell ref="R134:AG134"/>
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="E186:G186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34350,7 +34711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 4 Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\Uni\4. FS\Biochemie Praktikum\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82228494-79F4-4F18-B065-3C617BB9BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E24848-D0AF-4DA3-A88B-849709B8D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -640,13 +640,29 @@
   <si>
     <t>G6P</t>
   </si>
+  <si>
+    <t>Daten für Hanes-Woolf plot</t>
+  </si>
+  <si>
+    <t>vmax [mM/s]</t>
+  </si>
+  <si>
+    <t>Km [mM]</t>
+  </si>
+  <si>
+    <t>Ki[mM]</t>
+  </si>
+  <si>
+    <t>ATP [mM]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -780,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -798,6 +814,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,9 +826,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -899,7 +919,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2281,7 +2301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2319,7 +2339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672260095"/>
@@ -2399,7 +2419,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2437,7 +2457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672245951"/>
@@ -2479,7 +2499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2516,7 +2536,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2597,7 +2617,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3979,7 +3999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4017,7 +4037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672272575"/>
@@ -4101,7 +4121,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4139,7 +4159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672268831"/>
@@ -4181,7 +4201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4218,7 +4238,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4299,7 +4319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5681,7 +5701,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5719,7 +5739,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877873759"/>
@@ -5804,7 +5824,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5842,7 +5862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877858783"/>
@@ -5884,7 +5904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5921,7 +5941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6002,7 +6022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7592,7 +7612,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7630,7 +7650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672242207"/>
@@ -7710,7 +7730,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7748,7 +7768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672267999"/>
@@ -7790,7 +7810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7827,7 +7847,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7918,7 +7938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9453,7 +9473,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9491,7 +9511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877851295"/>
@@ -9572,7 +9592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9610,7 +9630,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="877854207"/>
@@ -9652,7 +9672,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9689,7 +9709,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9775,7 +9795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11157,7 +11177,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11195,7 +11215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49543583"/>
@@ -11277,7 +11297,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11315,7 +11335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49539423"/>
@@ -11357,7 +11377,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11394,7 +11414,904 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hanes-Woolf plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet0!$F$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0mM ATP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2510936132983378E-4"/>
+                  <c:y val="-1.2275048173784536E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet0!$E$189:$E$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet0!$F$189:$F$195</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3037.2625499405544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3603.0316611191834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4559.984431985923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9616.7824832306433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25445.105363860486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39960.037017074465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52600.627637941056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-733B-4A63-AC5D-112FF7D5E4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet0!$G$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6mM ATP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5305555555555555E-2"/>
+                  <c:y val="0.18719551171025853"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet0!$E$189:$E$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet0!$G$189:$G$195</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3271.1883031090306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4839.2803556107383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8972.9052172836618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29026.858980105895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70956.776453222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103435.12611472257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226208.52989621754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-733B-4A63-AC5D-112FF7D5E4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet0!$H$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12mM ATP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5611111111111115E-2"/>
+                  <c:y val="5.770658239047665E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet0!$E$189:$E$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet0!$H$189:$H$195</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6630.2220625001692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13742.191858273463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16188.047036681457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32751.340428563675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90401.931025695958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147151.92737394513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>228803.20820112707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-733B-4A63-AC5D-112FF7D5E4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="213547392"/>
+        <c:axId val="213549056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213547392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>substrate concentration [mM]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213549056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213549056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>substrate conc./reaction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> rate [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213547392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11438,6 +12355,46 @@
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -14537,6 +15494,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14750,6 +16223,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146275</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527275</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>123143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A607F1-CB94-DB02-8EC9-3CE49E3EEF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15081,17 +16590,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N204" sqref="N204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
-    <col min="19" max="19" width="6.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.06640625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.06640625" customWidth="1"/>
+    <col min="19" max="19" width="6.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15099,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15110,7 +16624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -15118,7 +16632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -15126,7 +16640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -15134,7 +16648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -15142,7 +16656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -15150,7 +16664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -15158,12 +16672,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -15179,7 +16693,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -15195,7 +16709,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -15211,17 +16725,17 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -15229,7 +16743,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -15237,7 +16751,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -15245,7 +16759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -15256,7 +16770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -15267,7 +16781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -15275,7 +16789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -15286,7 +16800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -15294,7 +16808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -15302,48 +16816,48 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="S32" s="14" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="S32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -15445,7 +16959,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -15565,7 +17079,7 @@
         <v>4.6200007200241089E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -15685,7 +17199,7 @@
         <v>3.540000319480896E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -15805,7 +17319,7 @@
         <v>3.4800007939338684E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -15925,7 +17439,7 @@
         <v>0.14749999344348907</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -16045,7 +17559,7 @@
         <v>0.13500000536441803</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -16165,7 +17679,7 @@
         <v>0.14619998633861542</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -16285,7 +17799,7 @@
         <v>0.1283000111579895</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -16405,7 +17919,7 @@
         <v>0.16079999506473541</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -16525,7 +18039,7 @@
         <v>0.12950000166893005</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -16645,7 +18159,7 @@
         <v>0.49729996919631958</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -16765,7 +18279,7 @@
         <v>0.30149999260902405</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -16885,7 +18399,7 @@
         <v>0.3976999819278717</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -17005,7 +18519,7 @@
         <v>0.32539999485015869</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -17125,7 +18639,7 @@
         <v>0.46560001373291016</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -17245,7 +18759,7 @@
         <v>0.62019997835159302</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -17365,7 +18879,7 @@
         <v>0.32559996843338013</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -17485,7 +18999,7 @@
         <v>0.26489996910095215</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -17605,7 +19119,7 @@
         <v>0.23610001802444458</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -17725,7 +19239,7 @@
         <v>0.46180003881454468</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -17845,7 +19359,7 @@
         <v>0.81109997630119324</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -17965,7 +19479,7 @@
         <v>0.66640001535415649</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -18085,7 +19599,7 @@
         <v>0.51339997351169586</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -18205,7 +19719,7 @@
         <v>0.49180002510547638</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
@@ -18325,7 +19839,7 @@
         <v>0.64399999380111694</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
@@ -18445,7 +19959,7 @@
         <v>0.26520001888275146</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -18565,7 +20079,7 @@
         <v>0.20140001177787781</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
@@ -18685,7 +20199,7 @@
         <v>0.31499998271465302</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -18805,7 +20319,7 @@
         <v>0.8893999457359314</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>66</v>
       </c>
@@ -18925,7 +20439,7 @@
         <v>0.93120002746582031</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
@@ -19045,7 +20559,7 @@
         <v>1.0916000604629517</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>68</v>
       </c>
@@ -19165,7 +20679,7 @@
         <v>0.69689998030662537</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
@@ -19285,7 +20799,7 @@
         <v>0.4966999888420105</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>70</v>
       </c>
@@ -19405,7 +20919,7 @@
         <v>0.63359999656677246</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>71</v>
       </c>
@@ -19525,7 +21039,7 @@
         <v>0.42549997568130493</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
@@ -19645,7 +21159,7 @@
         <v>0.37070000171661377</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
@@ -19765,7 +21279,7 @@
         <v>0.3767000138759613</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>74</v>
       </c>
@@ -19885,7 +21399,7 @@
         <v>0.60040000081062317</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -20005,7 +21519,7 @@
         <v>0.94280004501342773</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>76</v>
       </c>
@@ -20125,7 +21639,7 @@
         <v>1.2834999859333038</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>77</v>
       </c>
@@ -20245,7 +21759,7 @@
         <v>0.40209999680519104</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>78</v>
       </c>
@@ -20365,7 +21879,7 @@
         <v>0.48459997773170471</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>79</v>
       </c>
@@ -20485,7 +21999,7 @@
         <v>0.46299999952316284</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
@@ -20605,7 +22119,7 @@
         <v>0.40410000085830688</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>81</v>
       </c>
@@ -20725,7 +22239,7 @@
         <v>0.40390001237392426</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
@@ -20845,7 +22359,7 @@
         <v>0.38969996571540833</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
@@ -20965,7 +22479,7 @@
         <v>0.84519997239112854</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -21085,7 +22599,7 @@
         <v>0.84869995713233948</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>85</v>
       </c>
@@ -21205,7 +22719,7 @@
         <v>1.0161999762058258</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>86</v>
       </c>
@@ -21325,7 +22839,7 @@
         <v>0.59079998731613159</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>87</v>
       </c>
@@ -21445,7 +22959,7 @@
         <v>0.37459999322891235</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>88</v>
       </c>
@@ -21565,7 +23079,7 @@
         <v>0.40329998731613159</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>89</v>
       </c>
@@ -21685,7 +23199,7 @@
         <v>0.24699999392032623</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>90</v>
       </c>
@@ -21805,7 +23319,7 @@
         <v>0.53339999914169312</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
@@ -21925,7 +23439,7 @@
         <v>0.36090001463890076</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
@@ -22045,7 +23559,7 @@
         <v>0.76409995555877686</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>93</v>
       </c>
@@ -22165,7 +23679,7 @@
         <v>0.91800004243850708</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
@@ -22285,7 +23799,7 @@
         <v>0.74010005593299866</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>95</v>
       </c>
@@ -22405,7 +23919,7 @@
         <v>0.40960001945495605</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -22525,7 +24039,7 @@
         <v>0.4506000280380249</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>97</v>
       </c>
@@ -22645,7 +24159,7 @@
         <v>0.45669999718666077</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
         <v>98</v>
       </c>
@@ -22765,7 +24279,7 @@
         <v>0.30530001223087311</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>99</v>
       </c>
@@ -22885,7 +24399,7 @@
         <v>0.35990001261234283</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
         <v>100</v>
       </c>
@@ -23005,7 +24519,7 @@
         <v>0.32759998738765717</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>101</v>
       </c>
@@ -23125,7 +24639,7 @@
         <v>1.0455000400543213</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>102</v>
       </c>
@@ -23245,7 +24759,7 @@
         <v>0.815900057554245</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>103</v>
       </c>
@@ -23365,7 +24879,7 @@
         <v>0.75529998540878296</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
         <v>104</v>
       </c>
@@ -23485,7 +24999,7 @@
         <v>0.36609998345375061</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>105</v>
       </c>
@@ -23605,7 +25119,7 @@
         <v>0.33949999511241913</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>106</v>
       </c>
@@ -23725,7 +25239,7 @@
         <v>0.33190000057220459</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -23845,7 +25359,7 @@
         <v>0.2988000214099884</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
         <v>108</v>
       </c>
@@ -23965,7 +25479,7 @@
         <v>0.37960003316402435</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>109</v>
       </c>
@@ -24085,45 +25599,45 @@
         <v>0.2718999981880188</v>
       </c>
     </row>
-    <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="16" t="s">
+    <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16" t="s">
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S107" s="16"/>
-      <c r="T107" s="16"/>
-      <c r="U107" s="16"/>
-      <c r="V107" s="16"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="16"/>
-      <c r="Y107" s="16"/>
-      <c r="Z107" s="16"/>
-      <c r="AA107" s="16"/>
-      <c r="AB107" s="16"/>
-      <c r="AC107" s="16"/>
-      <c r="AD107" s="16"/>
-      <c r="AE107" s="16"/>
-      <c r="AF107" s="16"/>
-      <c r="AG107" s="16"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13"/>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
     </row>
-    <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B108" s="5">
         <v>0</v>
       </c>
@@ -24221,7 +25735,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
@@ -24354,7 +25868,7 @@
         <v>6.4156068038873394E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>113</v>
       </c>
@@ -24487,7 +26001,7 @@
         <v>6.8724000450112489E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -24620,7 +26134,7 @@
         <v>1.8427237619633167E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
@@ -24753,7 +26267,7 @@
         <v>9.7904908151061662E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>116</v>
       </c>
@@ -24886,7 +26400,7 @@
         <v>0.14745859567308361</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>117</v>
       </c>
@@ -25019,7 +26533,7 @@
         <v>4.5687650089435018E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>118</v>
       </c>
@@ -25152,7 +26666,7 @@
         <v>0.17550388192585203</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -25285,7 +26799,7 @@
         <v>8.234860203397748E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>120</v>
       </c>
@@ -25418,7 +26932,7 @@
         <v>5.6943584217300509E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>121</v>
       </c>
@@ -25551,7 +27065,7 @@
         <v>0.10673979561978933</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>122</v>
       </c>
@@ -25684,7 +27198,7 @@
         <v>0.10232997006330193</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
         <v>123</v>
       </c>
@@ -25817,7 +27331,7 @@
         <v>3.0056817209650748E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>124</v>
       </c>
@@ -25950,7 +27464,7 @@
         <v>0.34155034516341698</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
         <v>125</v>
       </c>
@@ -26083,7 +27597,7 @@
         <v>4.2781647627874224E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>126</v>
       </c>
@@ -26216,7 +27730,7 @@
         <v>8.2567379819416635E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
         <v>127</v>
       </c>
@@ -26349,7 +27863,7 @@
         <v>9.7732208600366646E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>128</v>
       </c>
@@ -26482,7 +27996,7 @@
         <v>0.11741832416898711</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
         <v>129</v>
       </c>
@@ -26615,7 +28129,7 @@
         <v>0.14419571327652467</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>130</v>
       </c>
@@ -26748,7 +28262,7 @@
         <v>9.6531201451737894E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>131</v>
       </c>
@@ -26881,7 +28395,7 @@
         <v>2.5614508355464968E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -27014,7 +28528,7 @@
         <v>2.7452202592764183E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
@@ -27147,7 +28661,7 @@
         <v>0.1530820000437369</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
@@ -27280,7 +28794,7 @@
         <v>1.7958090682977698E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
@@ -27413,45 +28927,45 @@
         <v>5.6052877836657841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B134" s="16" t="s">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B134" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16" t="s">
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-      <c r="Z134" s="16"/>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="16"/>
-      <c r="AD134" s="16"/>
-      <c r="AE134" s="16"/>
-      <c r="AF134" s="16"/>
-      <c r="AG134" s="16"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
+      <c r="Y134" s="13"/>
+      <c r="Z134" s="13"/>
+      <c r="AA134" s="13"/>
+      <c r="AB134" s="13"/>
+      <c r="AC134" s="13"/>
+      <c r="AD134" s="13"/>
+      <c r="AE134" s="13"/>
+      <c r="AF134" s="13"/>
+      <c r="AG134" s="13"/>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B135" s="5">
         <v>0</v>
       </c>
@@ -27549,7 +29063,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
         <v>112</v>
       </c>
@@ -27682,7 +29196,7 @@
         <v>6.4156068038873394E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>113</v>
       </c>
@@ -27815,7 +29329,7 @@
         <v>9.7190413497083763E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>114</v>
       </c>
@@ -27948,7 +29462,7 @@
         <v>2.6060049358756932E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>115</v>
       </c>
@@ -28081,7 +29595,7 @@
         <v>9.8114886998507553E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>116</v>
       </c>
@@ -28214,7 +29728,7 @@
         <v>0.14761865505503233</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>117</v>
       </c>
@@ -28347,7 +29861,7 @@
         <v>4.9263825034045777E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>118</v>
       </c>
@@ -28480,7 +29994,7 @@
         <v>0.17562110517163221</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>119</v>
       </c>
@@ -28613,7 +30127,7 @@
         <v>8.2634872416728941E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>120</v>
       </c>
@@ -28746,7 +30260,7 @@
         <v>5.9850938754569413E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>121</v>
       </c>
@@ -28879,7 +30393,7 @@
         <v>0.10693242716602146</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
         <v>122</v>
       </c>
@@ -29012,7 +30526,7 @@
         <v>0.10256048291391251</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
@@ -29145,7 +30659,7 @@
         <v>3.5255855500395693E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
         <v>124</v>
       </c>
@@ -29278,7 +30792,7 @@
         <v>0.34161059452527431</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>125</v>
       </c>
@@ -29411,7 +30925,7 @@
         <v>4.3330119502884672E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
         <v>126</v>
       </c>
@@ -29544,7 +31058,7 @@
         <v>2.0192493862642671E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>127</v>
       </c>
@@ -29677,7 +31191,7 @@
         <v>9.7942557698722912E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A152" s="4" t="s">
         <v>128</v>
       </c>
@@ -29810,7 +31324,7 @@
         <v>0.11761927024527917</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>129</v>
       </c>
@@ -29943,7 +31457,7 @@
         <v>0.14536838312926278</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>130</v>
       </c>
@@ -30076,7 +31590,7 @@
         <v>9.6744161913668414E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>131</v>
       </c>
@@ -30209,7 +31723,7 @@
         <v>2.6520424594467851E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>132</v>
       </c>
@@ -30342,7 +31856,7 @@
         <v>3.3063371175435098E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>133</v>
       </c>
@@ -30475,7 +31989,7 @@
         <v>0.15321637885047651</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A158" s="4" t="s">
         <v>134</v>
       </c>
@@ -30608,7 +32122,7 @@
         <v>1.9228179928342699E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>135</v>
       </c>
@@ -30741,45 +32255,45 @@
         <v>5.9004137143608089E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B160" s="16" t="s">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B160" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="16"/>
-      <c r="L160" s="16"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="16"/>
-      <c r="O160" s="16"/>
-      <c r="P160" s="16"/>
-      <c r="Q160" s="16"/>
-      <c r="R160" s="16" t="s">
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="13"/>
+      <c r="R160" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S160" s="16"/>
-      <c r="T160" s="16"/>
-      <c r="U160" s="16"/>
-      <c r="V160" s="16"/>
-      <c r="W160" s="16"/>
-      <c r="X160" s="16"/>
-      <c r="Y160" s="16"/>
-      <c r="Z160" s="16"/>
-      <c r="AA160" s="16"/>
-      <c r="AB160" s="16"/>
-      <c r="AC160" s="16"/>
-      <c r="AD160" s="16"/>
-      <c r="AE160" s="16"/>
-      <c r="AF160" s="16"/>
-      <c r="AG160" s="16"/>
+      <c r="S160" s="13"/>
+      <c r="T160" s="13"/>
+      <c r="U160" s="13"/>
+      <c r="V160" s="13"/>
+      <c r="W160" s="13"/>
+      <c r="X160" s="13"/>
+      <c r="Y160" s="13"/>
+      <c r="Z160" s="13"/>
+      <c r="AA160" s="13"/>
+      <c r="AB160" s="13"/>
+      <c r="AC160" s="13"/>
+      <c r="AD160" s="13"/>
+      <c r="AE160" s="13"/>
+      <c r="AF160" s="13"/>
+      <c r="AG160" s="13"/>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B161" s="5">
         <v>0</v>
       </c>
@@ -30877,7 +32391,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A162" s="4" t="s">
         <v>140</v>
       </c>
@@ -31010,7 +32524,7 @@
         <v>1.3223692810386963E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>141</v>
       </c>
@@ -31143,7 +32657,7 @@
         <v>2.0032651804988821E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A164" s="4" t="s">
         <v>142</v>
       </c>
@@ -31276,7 +32790,7 @@
         <v>5.3714340338768514E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>143</v>
       </c>
@@ -31409,7 +32923,7 @@
         <v>2.0223202036133966E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A166" s="4" t="s">
         <v>144</v>
       </c>
@@ -31542,7 +33056,7 @@
         <v>3.0426798387136678E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>145</v>
       </c>
@@ -31675,7 +33189,7 @@
         <v>1.0154139878400069E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A168" s="4" t="s">
         <v>146</v>
       </c>
@@ -31808,7 +33322,7 @@
         <v>3.6198595344140529E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>147</v>
       </c>
@@ -31941,7 +33455,7 @@
         <v>1.7032499055307307E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A170" s="4" t="s">
         <v>149</v>
       </c>
@@ -32074,7 +33588,7 @@
         <v>1.233633002608818E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>150</v>
       </c>
@@ -32207,7 +33721,7 @@
         <v>2.2040651984092146E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A172" s="4" t="s">
         <v>151</v>
       </c>
@@ -32340,7 +33854,7 @@
         <v>2.1139517461025745E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>152</v>
       </c>
@@ -32473,7 +33987,7 @@
         <v>7.2668512450316785E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A174" s="4" t="s">
         <v>153</v>
       </c>
@@ -32606,7 +34120,7 @@
         <v>7.0411945445888843E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>154</v>
       </c>
@@ -32739,7 +34253,7 @@
         <v>8.9310989164161653E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A176" s="4" t="s">
         <v>155</v>
       </c>
@@ -32872,7 +34386,7 @@
         <v>4.162027756336604E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>156</v>
       </c>
@@ -33005,7 +34519,7 @@
         <v>2.0187681939715332E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A178" s="4" t="s">
         <v>157</v>
       </c>
@@ -33138,7 +34652,7 @@
         <v>2.4243398104806489E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>158</v>
       </c>
@@ -33271,7 +34785,7 @@
         <v>2.996297780716934E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A180" s="4" t="s">
         <v>159</v>
       </c>
@@ -33404,7 +34918,7 @@
         <v>1.9940671513246848E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>160</v>
       </c>
@@ -33537,7 +35051,7 @@
         <v>5.4663254585019068E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
         <v>161</v>
       </c>
@@ -33670,7 +35184,7 @@
         <v>6.8149417048880981E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>162</v>
       </c>
@@ -33803,7 +35317,7 @@
         <v>3.1580587610371115E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
         <v>163</v>
       </c>
@@ -33936,7 +35450,7 @@
         <v>3.9632657120007211E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>164</v>
       </c>
@@ -34069,44 +35583,48 @@
         <v>1.2161789336220646E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A186" s="16" t="s">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A186" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="8"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
+      <c r="N186" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13"/>
       <c r="Q186" s="8"/>
-      <c r="R186" s="16"/>
-      <c r="S186" s="16"/>
-      <c r="T186" s="16"/>
-      <c r="U186" s="16"/>
-      <c r="V186" s="16"/>
-      <c r="W186" s="16"/>
-      <c r="X186" s="16"/>
-      <c r="Y186" s="16"/>
-      <c r="Z186" s="16"/>
-      <c r="AA186" s="16"/>
-      <c r="AB186" s="16"/>
-      <c r="AC186" s="16"/>
-      <c r="AD186" s="16"/>
-      <c r="AE186" s="16"/>
-      <c r="AF186" s="16"/>
-      <c r="AG186" s="16"/>
+      <c r="R186" s="13"/>
+      <c r="S186" s="13"/>
+      <c r="T186" s="13"/>
+      <c r="U186" s="13"/>
+      <c r="V186" s="13"/>
+      <c r="W186" s="13"/>
+      <c r="X186" s="13"/>
+      <c r="Y186" s="13"/>
+      <c r="Z186" s="13"/>
+      <c r="AA186" s="13"/>
+      <c r="AB186" s="13"/>
+      <c r="AC186" s="13"/>
+      <c r="AD186" s="13"/>
+      <c r="AE186" s="13"/>
+      <c r="AF186" s="13"/>
+      <c r="AG186" s="13"/>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A187" s="12" t="s">
         <v>170</v>
       </c>
@@ -34119,18 +35637,43 @@
       <c r="D187" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
+      <c r="E187" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
+      <c r="J187" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M187" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0</v>
+      </c>
+      <c r="O187" s="5">
+        <v>6</v>
+      </c>
+      <c r="P187" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q187" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="R187" s="5"/>
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
@@ -34148,7 +35691,7 @@
       <c r="AF187" s="5"/>
       <c r="AG187" s="5"/>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A188" s="11">
         <v>0</v>
       </c>
@@ -34164,20 +35707,54 @@
         <f>SLOPE(B178:Q178,$B$161:$Q$161)</f>
         <v>0</v>
       </c>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
+      <c r="E188" s="11">
+        <v>0</v>
+      </c>
+      <c r="F188" s="18" t="e">
+        <f>$E188/B188</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G188" s="18" t="e">
+        <f t="shared" ref="G188:H188" si="163">$E188/C188</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H188" s="18" t="e">
+        <f t="shared" si="163"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J188" s="20">
+        <f>(SLOPE(F189:F195,$E$189:$E$195)^(-1))</f>
+        <v>1.8854738728565234E-4</v>
+      </c>
+      <c r="K188" s="20">
+        <f t="shared" ref="K188:L188" si="164">(SLOPE(G189:G195,$E$189:$E$195)^(-1))</f>
+        <v>4.7846728576838497E-5</v>
+      </c>
+      <c r="L188" s="20">
+        <f t="shared" si="164"/>
+        <v>4.4760299419995727E-5</v>
+      </c>
+      <c r="M188" s="11">
+        <v>0</v>
+      </c>
+      <c r="N188" s="17" t="e">
+        <f>(N$187)/(($J$188*$M188)/($B188*($J$189+$M188))-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O188" s="17" t="e">
+        <f t="shared" ref="O188:P188" si="165">(O$187)/(($J$188*$M188)/($B188*($J$189+$M188))-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P188" s="17" t="e">
+        <f t="shared" si="165"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q188" s="7"/>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A189" s="11">
         <v>0.25</v>
       </c>
@@ -34186,172 +35763,321 @@
         <v>8.2310961232144069E-5</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" ref="C189:C195" si="163">SLOPE(B171:Q171,$B$161:$Q$161)</f>
+        <f t="shared" ref="C189:C195" si="166">SLOPE(B171:Q171,$B$161:$Q$161)</f>
         <v>7.6424826954288411E-5</v>
       </c>
       <c r="D189" s="7">
-        <f t="shared" ref="D189:D195" si="164">SLOPE(B179:Q179,$B$161:$Q$161)</f>
+        <f t="shared" ref="D189:D195" si="167">SLOPE(B179:Q179,$B$161:$Q$161)</f>
         <v>3.7706127734992981E-5</v>
       </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
+      <c r="E189" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F189" s="18">
+        <f t="shared" ref="F189:F195" si="168">$E189/B189</f>
+        <v>3037.2625499405544</v>
+      </c>
+      <c r="G189" s="18">
+        <f>$E189/C189</f>
+        <v>3271.1883031090306</v>
+      </c>
+      <c r="H189" s="18">
+        <f t="shared" ref="H189:H195" si="169">$E189/D189</f>
+        <v>6630.2220625001692</v>
+      </c>
+      <c r="I189" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J189" s="20">
+        <f>INTERCEPT(F189:F195,$E$189:$E$195)*J188</f>
+        <v>6.0668872573680033E-2</v>
+      </c>
+      <c r="K189" s="20">
+        <f t="shared" ref="K189:L189" si="170">INTERCEPT(G189:G195,$E$189:$E$195)*K188</f>
+        <v>-0.62519372057743106</v>
+      </c>
+      <c r="L189" s="20">
+        <f t="shared" si="170"/>
+        <v>-0.25332872556303637</v>
+      </c>
+      <c r="M189" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="N189" s="17">
+        <f t="shared" ref="N189:P195" si="171">(N$187)/(($J$188*$M189)/($B189*($J$189+$M189))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="O189" s="17">
+        <f t="shared" si="171"/>
+        <v>7.1145802471631328</v>
+      </c>
+      <c r="P189" s="17">
+        <f t="shared" si="171"/>
+        <v>14.229160494326266</v>
+      </c>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A190" s="11">
         <v>0.5</v>
       </c>
       <c r="B190" s="7">
-        <f t="shared" ref="B190:B194" si="165">SLOPE(B164:Q164,$B$161:$Q$161)</f>
+        <f t="shared" ref="B190:B194" si="172">SLOPE(B164:Q164,$B$161:$Q$161)</f>
         <v>1.3877202506865807E-4</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>1.0332114762069779E-4</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>3.638429772751105E-5</v>
       </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
+      <c r="E190" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F190" s="18">
+        <f t="shared" si="168"/>
+        <v>3603.0316611191834</v>
+      </c>
+      <c r="G190" s="18">
+        <f t="shared" ref="G189:G195" si="173">$E190/C190</f>
+        <v>4839.2803556107383</v>
+      </c>
+      <c r="H190" s="18">
+        <f t="shared" si="169"/>
+        <v>13742.191858273463</v>
+      </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
+      <c r="M190" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N190" s="17">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="O190" s="17">
+        <f t="shared" si="171"/>
+        <v>28.346833597663434</v>
+      </c>
+      <c r="P190" s="17">
+        <f t="shared" si="171"/>
+        <v>56.693667195326867</v>
+      </c>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
         <v>1</v>
       </c>
       <c r="B191" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>2.1929899430917334E-4</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>1.1144662467556151E-4</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>6.1773974200472767E-5</v>
       </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
+      <c r="E191" s="11">
+        <v>1</v>
+      </c>
+      <c r="F191" s="18">
+        <f>$E191/B191</f>
+        <v>4559.984431985923</v>
+      </c>
+      <c r="G191" s="18">
+        <f t="shared" si="173"/>
+        <v>8972.9052172836618</v>
+      </c>
+      <c r="H191" s="18">
+        <f t="shared" si="169"/>
+        <v>16188.047036681457</v>
+      </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
+      <c r="M191" s="11">
+        <v>1</v>
+      </c>
+      <c r="N191" s="17">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="O191" s="17">
+        <f t="shared" si="171"/>
+        <v>-31.678191932296826</v>
+      </c>
+      <c r="P191" s="17">
+        <f t="shared" si="171"/>
+        <v>-63.356383864593653</v>
+      </c>
       <c r="Q191" s="7"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
         <v>2</v>
       </c>
       <c r="B192" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>2.0796976571816188E-4</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>6.8901702432589684E-5</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>6.1066202904346619E-5</v>
       </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
+      <c r="E192" s="11">
+        <v>2</v>
+      </c>
+      <c r="F192" s="18">
+        <f t="shared" si="168"/>
+        <v>9616.7824832306433</v>
+      </c>
+      <c r="G192" s="18">
+        <f t="shared" si="173"/>
+        <v>29026.858980105895</v>
+      </c>
+      <c r="H192" s="18">
+        <f t="shared" si="169"/>
+        <v>32751.340428563675</v>
+      </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="7"/>
-      <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
+      <c r="M192" s="11">
+        <v>2</v>
+      </c>
+      <c r="N192" s="17">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="O192" s="17">
+        <f>(O$187)/(($J$188*$M192)/($B192*($J$189+$M192))-1)</f>
+        <v>-49.965771511586212</v>
+      </c>
+      <c r="P192" s="17">
+        <f t="shared" si="171"/>
+        <v>-99.931543023172424</v>
+      </c>
       <c r="Q192" s="7"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
         <v>5</v>
       </c>
       <c r="B193" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>1.9650144609349769E-4</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>7.0465433323288246E-5</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>5.5308553072597458E-5</v>
       </c>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
+      <c r="E193" s="11">
+        <v>5</v>
+      </c>
+      <c r="F193" s="18">
+        <f t="shared" si="168"/>
+        <v>25445.105363860486</v>
+      </c>
+      <c r="G193" s="18">
+        <f t="shared" si="173"/>
+        <v>70956.776453222221</v>
+      </c>
+      <c r="H193" s="18">
+        <f t="shared" si="169"/>
+        <v>90401.931025695958</v>
+      </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
+      <c r="M193" s="11">
+        <v>5</v>
+      </c>
+      <c r="N193" s="17">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="O193" s="17">
+        <f t="shared" si="171"/>
+        <v>-115.42586545071727</v>
+      </c>
+      <c r="P193" s="17">
+        <f t="shared" si="171"/>
+        <v>-230.85173090143454</v>
+      </c>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
         <v>7</v>
       </c>
       <c r="B194" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>1.7517501290123882E-4</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>6.7675269156013007E-5</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>4.7569883214723198E-5</v>
       </c>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
+      <c r="E194" s="11">
+        <v>7</v>
+      </c>
+      <c r="F194" s="18">
+        <f t="shared" si="168"/>
+        <v>39960.037017074465</v>
+      </c>
+      <c r="G194" s="18">
+        <f t="shared" si="173"/>
+        <v>103435.12611472257</v>
+      </c>
+      <c r="H194" s="18">
+        <f t="shared" si="169"/>
+        <v>147151.92737394513</v>
+      </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="7"/>
-      <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
-      <c r="P194" s="7"/>
+      <c r="M194" s="11">
+        <v>7</v>
+      </c>
+      <c r="N194" s="17">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="O194" s="17">
+        <f t="shared" si="171"/>
+        <v>89.433724471037124</v>
+      </c>
+      <c r="P194" s="17">
+        <f t="shared" si="171"/>
+        <v>178.86744894207425</v>
+      </c>
       <c r="Q194" s="7"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
         <v>10</v>
       </c>
@@ -34360,27 +36086,50 @@
         <v>1.9011179997378887E-4</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>4.4206997873103683E-5</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>4.3705680871439547E-5</v>
       </c>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
+      <c r="E195" s="11">
+        <v>10</v>
+      </c>
+      <c r="F195" s="18">
+        <f t="shared" si="168"/>
+        <v>52600.627637941056</v>
+      </c>
+      <c r="G195" s="18">
+        <f t="shared" si="173"/>
+        <v>226208.52989621754</v>
+      </c>
+      <c r="H195" s="18">
+        <f t="shared" si="169"/>
+        <v>228803.20820112707</v>
+      </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="7"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
+      <c r="M195" s="11">
+        <v>10</v>
+      </c>
+      <c r="N195" s="17">
+        <f>(N$187)/(($J$188*$M195)/($B195*($J$189+$M195))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="O195" s="17">
+        <f t="shared" si="171"/>
+        <v>-422.25009682855728</v>
+      </c>
+      <c r="P195" s="17">
+        <f t="shared" si="171"/>
+        <v>-844.50019365711455</v>
+      </c>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A196" s="11"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -34399,7 +36148,7 @@
       <c r="P196" s="7"/>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -34418,7 +36167,7 @@
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -34437,7 +36186,7 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -34456,7 +36205,7 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -34475,7 +36224,7 @@
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -34494,7 +36243,7 @@
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A202" s="10"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -34513,7 +36262,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A203" s="10"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -34532,7 +36281,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A204" s="9"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -34551,7 +36300,7 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A205" s="9"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -34570,7 +36319,7 @@
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A206" s="9"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -34589,7 +36338,7 @@
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A207" s="9"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -34608,7 +36357,7 @@
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208" s="9"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -34627,7 +36376,7 @@
       <c r="P208" s="7"/>
       <c r="Q208" s="7"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A209" s="9"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -34646,7 +36395,7 @@
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A210" s="9"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -34665,7 +36414,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A211" s="9"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -34685,18 +36434,19 @@
       <c r="Q211" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="E186:G186"/>
+  <mergeCells count="12">
     <mergeCell ref="B32:Q32"/>
     <mergeCell ref="S32:AH32"/>
     <mergeCell ref="B107:Q107"/>
     <mergeCell ref="R107:AG107"/>
     <mergeCell ref="B134:Q134"/>
     <mergeCell ref="R134:AG134"/>
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="E186:H186"/>
+    <mergeCell ref="N186:P186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34711,7 +36461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\Uni\4. FS\Biochemie Praktikum\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E24848-D0AF-4DA3-A88B-849709B8D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCF988-B33C-4E5C-AC9D-AD0D4EECEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="184">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -626,9 +626,6 @@
     <t>Error mM NADPH</t>
   </si>
   <si>
-    <t>Reaktionsrate  mM NADPH/s</t>
-  </si>
-  <si>
     <t>0mM ATP</t>
   </si>
   <si>
@@ -650,19 +647,47 @@
     <t>Km [mM]</t>
   </si>
   <si>
-    <t>Ki[mM]</t>
+    <t>ATP [mM]</t>
   </si>
   <si>
-    <t>ATP [mM]</t>
+    <t>nicht-lineare Regression</t>
+  </si>
+  <si>
+    <t>lineare Regression</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Konstante</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>dvmax [mM/s]</t>
+  </si>
+  <si>
+    <t>dKm [mM]</t>
+  </si>
+  <si>
+    <t>G6P [mM]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NADPH-Reaktionsrate  [mM/s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -796,7 +821,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -814,9 +839,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,10 +851,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12247,6 +12284,10 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -16590,8 +16631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N204" sqref="N204"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16601,6 +16642,7 @@
     <col min="9" max="9" width="12.06640625" customWidth="1"/>
     <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.06640625" customWidth="1"/>
     <col min="19" max="19" width="6.06640625" customWidth="1"/>
   </cols>
@@ -16820,42 +16862,42 @@
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="S32" s="15" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="S32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
@@ -25600,42 +25642,42 @@
       </c>
     </row>
     <row r="107" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13" t="s">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="19"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="19"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="19"/>
+      <c r="AG107" s="19"/>
     </row>
     <row r="108" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B108" s="5">
@@ -28928,42 +28970,42 @@
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="13" t="s">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="S134" s="13"/>
-      <c r="T134" s="13"/>
-      <c r="U134" s="13"/>
-      <c r="V134" s="13"/>
-      <c r="W134" s="13"/>
-      <c r="X134" s="13"/>
-      <c r="Y134" s="13"/>
-      <c r="Z134" s="13"/>
-      <c r="AA134" s="13"/>
-      <c r="AB134" s="13"/>
-      <c r="AC134" s="13"/>
-      <c r="AD134" s="13"/>
-      <c r="AE134" s="13"/>
-      <c r="AF134" s="13"/>
-      <c r="AG134" s="13"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="19"/>
+      <c r="AC134" s="19"/>
+      <c r="AD134" s="19"/>
+      <c r="AE134" s="19"/>
+      <c r="AF134" s="19"/>
+      <c r="AG134" s="19"/>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B135" s="5">
@@ -32256,42 +32298,42 @@
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="13"/>
-      <c r="R160" s="13" t="s">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="S160" s="13"/>
-      <c r="T160" s="13"/>
-      <c r="U160" s="13"/>
-      <c r="V160" s="13"/>
-      <c r="W160" s="13"/>
-      <c r="X160" s="13"/>
-      <c r="Y160" s="13"/>
-      <c r="Z160" s="13"/>
-      <c r="AA160" s="13"/>
-      <c r="AB160" s="13"/>
-      <c r="AC160" s="13"/>
-      <c r="AD160" s="13"/>
-      <c r="AE160" s="13"/>
-      <c r="AF160" s="13"/>
-      <c r="AG160" s="13"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="19"/>
+      <c r="AD160" s="19"/>
+      <c r="AE160" s="19"/>
+      <c r="AF160" s="19"/>
+      <c r="AG160" s="19"/>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B161" s="5">
@@ -35584,97 +35626,89 @@
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A186" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="13"/>
+      <c r="A186" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="O186" s="13"/>
-      <c r="P186" s="13"/>
       <c r="Q186" s="8"/>
-      <c r="R186" s="13"/>
-      <c r="S186" s="13"/>
-      <c r="T186" s="13"/>
-      <c r="U186" s="13"/>
-      <c r="V186" s="13"/>
-      <c r="W186" s="13"/>
-      <c r="X186" s="13"/>
-      <c r="Y186" s="13"/>
-      <c r="Z186" s="13"/>
-      <c r="AA186" s="13"/>
-      <c r="AB186" s="13"/>
-      <c r="AC186" s="13"/>
-      <c r="AD186" s="13"/>
-      <c r="AE186" s="13"/>
-      <c r="AF186" s="13"/>
-      <c r="AG186" s="13"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="19"/>
+      <c r="T186" s="19"/>
+      <c r="U186" s="19"/>
+      <c r="V186" s="19"/>
+      <c r="W186" s="19"/>
+      <c r="X186" s="19"/>
+      <c r="Y186" s="19"/>
+      <c r="Z186" s="19"/>
+      <c r="AA186" s="19"/>
+      <c r="AB186" s="19"/>
+      <c r="AC186" s="19"/>
+      <c r="AD186" s="19"/>
+      <c r="AE186" s="19"/>
+      <c r="AF186" s="19"/>
+      <c r="AG186" s="19"/>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A187" s="12" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B187" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="D187" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="E187" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="F187" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H187" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I187" s="5"/>
+      <c r="I187" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J187" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L187" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K187" s="5" t="s">
+      <c r="M187" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L187" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M187" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="N187" s="5">
-        <v>0</v>
-      </c>
-      <c r="O187" s="5">
-        <v>6</v>
-      </c>
-      <c r="P187" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q187" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R187" s="5"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
       <c r="U187" s="5"/>
@@ -35691,7 +35725,7 @@
       <c r="AF187" s="5"/>
       <c r="AG187" s="5"/>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="11">
         <v>0</v>
       </c>
@@ -35710,49 +35744,49 @@
       <c r="E188" s="11">
         <v>0</v>
       </c>
-      <c r="F188" s="18" t="e">
+      <c r="F188" s="14" t="e">
         <f>$E188/B188</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G188" s="18" t="e">
+      <c r="G188" s="14" t="e">
         <f t="shared" ref="G188:H188" si="163">$E188/C188</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H188" s="18" t="e">
+      <c r="H188" s="14" t="e">
         <f t="shared" si="163"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I188" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="J188" s="20">
+      <c r="I188" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K188" s="21">
         <f>(SLOPE(F189:F195,$E$189:$E$195)^(-1))</f>
         <v>1.8854738728565234E-4</v>
       </c>
-      <c r="K188" s="20">
-        <f t="shared" ref="K188:L188" si="164">(SLOPE(G189:G195,$E$189:$E$195)^(-1))</f>
+      <c r="L188" s="21">
+        <f>(SLOPE(G189:G195,$E$189:$E$195)^(-1))</f>
         <v>4.7846728576838497E-5</v>
       </c>
-      <c r="L188" s="20">
-        <f t="shared" si="164"/>
+      <c r="M188" s="21">
+        <f>(SLOPE(H189:H195,$E$189:$E$195)^(-1))</f>
         <v>4.4760299419995727E-5</v>
       </c>
-      <c r="M188" s="11">
+      <c r="N188" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O188" s="5">
         <v>0</v>
       </c>
-      <c r="N188" s="17" t="e">
-        <f>(N$187)/(($J$188*$M188)/($B188*($J$189+$M188))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O188" s="17" t="e">
-        <f t="shared" ref="O188:P188" si="165">(O$187)/(($J$188*$M188)/($B188*($J$189+$M188))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P188" s="17" t="e">
-        <f t="shared" si="165"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q188" s="7"/>
+      <c r="P188" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q188" s="5">
+        <v>12</v>
+      </c>
+      <c r="R188" s="7"/>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A189" s="11">
@@ -35763,321 +35797,367 @@
         <v>8.2310961232144069E-5</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" ref="C189:C195" si="166">SLOPE(B171:Q171,$B$161:$Q$161)</f>
+        <f t="shared" ref="C189:C195" si="164">SLOPE(B171:Q171,$B$161:$Q$161)</f>
         <v>7.6424826954288411E-5</v>
       </c>
       <c r="D189" s="7">
-        <f t="shared" ref="D189:D195" si="167">SLOPE(B179:Q179,$B$161:$Q$161)</f>
+        <f t="shared" ref="D189:D195" si="165">SLOPE(B179:Q179,$B$161:$Q$161)</f>
         <v>3.7706127734992981E-5</v>
       </c>
       <c r="E189" s="11">
         <v>0.25</v>
       </c>
-      <c r="F189" s="18">
-        <f t="shared" ref="F189:F195" si="168">$E189/B189</f>
+      <c r="F189" s="14">
+        <f t="shared" ref="F189:F195" si="166">$E189/B189</f>
         <v>3037.2625499405544</v>
       </c>
-      <c r="G189" s="18">
+      <c r="G189" s="14">
         <f>$E189/C189</f>
         <v>3271.1883031090306</v>
       </c>
-      <c r="H189" s="18">
-        <f t="shared" ref="H189:H195" si="169">$E189/D189</f>
+      <c r="H189" s="14">
+        <f t="shared" ref="H189:H195" si="167">$E189/D189</f>
         <v>6630.2220625001692</v>
       </c>
-      <c r="I189" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J189" s="20">
-        <f>INTERCEPT(F189:F195,$E$189:$E$195)*J188</f>
+      <c r="I189" s="20"/>
+      <c r="J189" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K189" s="21">
+        <f>INTERCEPT(F189:F195,$E$189:$E$195)*K188</f>
         <v>6.0668872573680033E-2</v>
       </c>
-      <c r="K189" s="20">
-        <f t="shared" ref="K189:L189" si="170">INTERCEPT(G189:G195,$E$189:$E$195)*K188</f>
+      <c r="L189" s="21">
+        <f>INTERCEPT(G189:G195,$E$189:$E$195)*L188</f>
         <v>-0.62519372057743106</v>
       </c>
-      <c r="L189" s="20">
-        <f t="shared" si="170"/>
+      <c r="M189" s="21">
+        <f>INTERCEPT(H189:H195,$E$189:$E$195)*M188</f>
         <v>-0.25332872556303637</v>
       </c>
-      <c r="M189" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="N189" s="17">
-        <f t="shared" ref="N189:P195" si="171">(N$187)/(($J$188*$M189)/($B189*($J$189+$M189))-1)</f>
+      <c r="N189" s="11">
         <v>0</v>
       </c>
-      <c r="O189" s="17">
-        <f t="shared" si="171"/>
-        <v>7.1145802471631328</v>
-      </c>
-      <c r="P189" s="17">
-        <f t="shared" si="171"/>
-        <v>14.229160494326266</v>
-      </c>
-      <c r="Q189" s="7"/>
+      <c r="O189" s="13">
+        <v>0</v>
+      </c>
+      <c r="P189" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="13">
+        <v>0</v>
+      </c>
+      <c r="R189" s="24" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A190" s="11">
         <v>0.5</v>
       </c>
       <c r="B190" s="7">
-        <f t="shared" ref="B190:B194" si="172">SLOPE(B164:Q164,$B$161:$Q$161)</f>
+        <f t="shared" ref="B190:B194" si="168">SLOPE(B164:Q164,$B$161:$Q$161)</f>
         <v>1.3877202506865807E-4</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>1.0332114762069779E-4</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>3.638429772751105E-5</v>
       </c>
       <c r="E190" s="11">
         <v>0.5</v>
       </c>
-      <c r="F190" s="18">
-        <f t="shared" si="168"/>
+      <c r="F190" s="14">
+        <f t="shared" si="166"/>
         <v>3603.0316611191834</v>
       </c>
-      <c r="G190" s="18">
-        <f t="shared" ref="G189:G195" si="173">$E190/C190</f>
+      <c r="G190" s="14">
+        <f t="shared" ref="G190:G195" si="169">$E190/C190</f>
         <v>4839.2803556107383</v>
       </c>
-      <c r="H190" s="18">
-        <f t="shared" si="169"/>
+      <c r="H190" s="14">
+        <f t="shared" si="167"/>
         <v>13742.191858273463</v>
       </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="N190" s="17">
-        <f t="shared" si="171"/>
+      <c r="I190" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K190" s="21">
+        <v>2.0780000000000001E-4</v>
+      </c>
+      <c r="L190" s="21">
+        <v>7.0959999999999998E-5</v>
+      </c>
+      <c r="M190" s="21">
+        <v>5.4039999999999998E-5</v>
+      </c>
+      <c r="N190" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="O190" s="13">
+        <f>(O$188)/(($K$188*$N190)/($B189*($K$189+$N190))-1)</f>
         <v>0</v>
       </c>
-      <c r="O190" s="17">
-        <f t="shared" si="171"/>
-        <v>28.346833597663434</v>
-      </c>
-      <c r="P190" s="17">
-        <f t="shared" si="171"/>
-        <v>56.693667195326867</v>
-      </c>
-      <c r="Q190" s="7"/>
+      <c r="P190" s="13">
+        <f>(P$188)/(($K$188*$N190)/($B189*($K$189+$N190))-1)</f>
+        <v>7.1145802471631328</v>
+      </c>
+      <c r="Q190" s="13">
+        <f>(Q$188)/(($K$188*$N190)/($B189*($K$189+$N190))-1)</f>
+        <v>14.229160494326266</v>
+      </c>
+      <c r="R190" s="24"/>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
         <v>1</v>
       </c>
       <c r="B191" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>2.1929899430917334E-4</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>1.1144662467556151E-4</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>6.1773974200472767E-5</v>
       </c>
       <c r="E191" s="11">
         <v>1</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="14">
         <f>$E191/B191</f>
         <v>4559.984431985923</v>
       </c>
-      <c r="G191" s="18">
-        <f t="shared" si="173"/>
+      <c r="G191" s="14">
+        <f t="shared" si="169"/>
         <v>8972.9052172836618</v>
       </c>
-      <c r="H191" s="18">
-        <f t="shared" si="169"/>
+      <c r="H191" s="14">
+        <f t="shared" si="167"/>
         <v>16188.047036681457</v>
       </c>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
-      <c r="L191" s="7"/>
-      <c r="M191" s="11">
-        <v>1</v>
-      </c>
-      <c r="N191" s="17">
-        <f t="shared" si="171"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K191" s="21">
+        <v>0.22189999999999999</v>
+      </c>
+      <c r="L191" s="21">
+        <v>7.7590000000000002E-9</v>
+      </c>
+      <c r="M191" s="21">
+        <v>0.1007</v>
+      </c>
+      <c r="N191" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O191" s="13">
+        <f>(O$188)/(($K$188*$N191)/($B190*($K$189+$N191))-1)</f>
         <v>0</v>
       </c>
-      <c r="O191" s="17">
-        <f t="shared" si="171"/>
-        <v>-31.678191932296826</v>
-      </c>
-      <c r="P191" s="17">
-        <f t="shared" si="171"/>
-        <v>-63.356383864593653</v>
-      </c>
-      <c r="Q191" s="7"/>
+      <c r="P191" s="13">
+        <f>(P$188)/(($K$188*$N191)/($B190*($K$189+$N191))-1)</f>
+        <v>28.346833597663434</v>
+      </c>
+      <c r="Q191" s="13">
+        <f>(Q$188)/(($K$188*$N191)/($B190*($K$189+$N191))-1)</f>
+        <v>56.693667195326867</v>
+      </c>
+      <c r="R191" s="24"/>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
         <v>2</v>
       </c>
       <c r="B192" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>2.0796976571816188E-4</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>6.8901702432589684E-5</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>6.1066202904346619E-5</v>
       </c>
       <c r="E192" s="11">
         <v>2</v>
       </c>
-      <c r="F192" s="18">
-        <f t="shared" si="168"/>
+      <c r="F192" s="14">
+        <f t="shared" si="166"/>
         <v>9616.7824832306433</v>
       </c>
-      <c r="G192" s="18">
-        <f t="shared" si="173"/>
+      <c r="G192" s="14">
+        <f t="shared" si="169"/>
         <v>29026.858980105895</v>
       </c>
-      <c r="H192" s="18">
-        <f t="shared" si="169"/>
+      <c r="H192" s="14">
+        <f t="shared" si="167"/>
         <v>32751.340428563675</v>
       </c>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
-      <c r="L192" s="7"/>
-      <c r="M192" s="11">
-        <v>2</v>
-      </c>
-      <c r="N192" s="17">
-        <f t="shared" si="171"/>
+      <c r="I192" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K192" s="7">
+        <f>ABS(K188-K190)</f>
+        <v>1.9252612714347668E-5</v>
+      </c>
+      <c r="L192" s="7">
+        <f t="shared" ref="L192:M193" si="170">ABS(L188-L190)</f>
+        <v>2.3113271423161501E-5</v>
+      </c>
+      <c r="M192" s="7">
+        <f>ABS(M188-M190)</f>
+        <v>9.279700580004271E-6</v>
+      </c>
+      <c r="N192" s="11">
+        <v>1</v>
+      </c>
+      <c r="O192" s="13">
+        <f>(O$188)/(($K$188*$N192)/($B191*($K$189+$N192))-1)</f>
         <v>0</v>
       </c>
-      <c r="O192" s="17">
-        <f>(O$187)/(($J$188*$M192)/($B192*($J$189+$M192))-1)</f>
-        <v>-49.965771511586212</v>
-      </c>
-      <c r="P192" s="17">
-        <f t="shared" si="171"/>
-        <v>-99.931543023172424</v>
-      </c>
-      <c r="Q192" s="7"/>
+      <c r="P192" s="13">
+        <f>(P$188)/(($K$188*$N192)/($B191*($K$189+$N192))-1)</f>
+        <v>-31.678191932296826</v>
+      </c>
+      <c r="Q192" s="13">
+        <f>(Q$188)/(($K$188*$N192)/($B191*($K$189+$N192))-1)</f>
+        <v>-63.356383864593653</v>
+      </c>
+      <c r="R192" s="24"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
         <v>5</v>
       </c>
       <c r="B193" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>1.9650144609349769E-4</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>7.0465433323288246E-5</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>5.5308553072597458E-5</v>
       </c>
       <c r="E193" s="11">
         <v>5</v>
       </c>
-      <c r="F193" s="18">
-        <f t="shared" si="168"/>
+      <c r="F193" s="14">
+        <f t="shared" si="166"/>
         <v>25445.105363860486</v>
       </c>
-      <c r="G193" s="18">
-        <f t="shared" si="173"/>
+      <c r="G193" s="14">
+        <f t="shared" si="169"/>
         <v>70956.776453222221</v>
       </c>
-      <c r="H193" s="18">
-        <f t="shared" si="169"/>
+      <c r="H193" s="14">
+        <f t="shared" si="167"/>
         <v>90401.931025695958</v>
       </c>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="7"/>
-      <c r="M193" s="11">
-        <v>5</v>
-      </c>
-      <c r="N193" s="17">
-        <f t="shared" si="171"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K193" s="7">
+        <f>ABS(K189-K191)</f>
+        <v>0.16123112742631995</v>
+      </c>
+      <c r="L193" s="7">
+        <f t="shared" si="170"/>
+        <v>0.62519372833643105</v>
+      </c>
+      <c r="M193" s="7">
+        <f t="shared" si="170"/>
+        <v>0.35402872556303638</v>
+      </c>
+      <c r="N193" s="11">
+        <v>2</v>
+      </c>
+      <c r="O193" s="13">
+        <f>(O$188)/(($K$188*$N193)/($B192*($K$189+$N193))-1)</f>
         <v>0</v>
       </c>
-      <c r="O193" s="17">
-        <f t="shared" si="171"/>
-        <v>-115.42586545071727</v>
-      </c>
-      <c r="P193" s="17">
-        <f t="shared" si="171"/>
-        <v>-230.85173090143454</v>
-      </c>
-      <c r="Q193" s="7"/>
+      <c r="P193" s="13">
+        <f>(P$188)/(($K$188*$N193)/($B192*($K$189+$N193))-1)</f>
+        <v>-49.965771511586212</v>
+      </c>
+      <c r="Q193" s="13">
+        <f>(Q$188)/(($K$188*$N193)/($B192*($K$189+$N193))-1)</f>
+        <v>-99.931543023172424</v>
+      </c>
+      <c r="R193" s="24"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
         <v>7</v>
       </c>
       <c r="B194" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>1.7517501290123882E-4</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>6.7675269156013007E-5</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>4.7569883214723198E-5</v>
       </c>
       <c r="E194" s="11">
         <v>7</v>
       </c>
-      <c r="F194" s="18">
-        <f t="shared" si="168"/>
+      <c r="F194" s="14">
+        <f t="shared" si="166"/>
         <v>39960.037017074465</v>
       </c>
-      <c r="G194" s="18">
-        <f t="shared" si="173"/>
+      <c r="G194" s="14">
+        <f t="shared" si="169"/>
         <v>103435.12611472257</v>
       </c>
-      <c r="H194" s="18">
-        <f t="shared" si="169"/>
+      <c r="H194" s="14">
+        <f t="shared" si="167"/>
         <v>147151.92737394513</v>
       </c>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="J194" s="15"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="11">
-        <v>7</v>
-      </c>
-      <c r="N194" s="17">
-        <f t="shared" si="171"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="11">
+        <v>5</v>
+      </c>
+      <c r="O194" s="13">
+        <f>(O$188)/(($K$188*$N194)/($B193*($K$189+$N194))-1)</f>
         <v>0</v>
       </c>
-      <c r="O194" s="17">
-        <f t="shared" si="171"/>
-        <v>89.433724471037124</v>
-      </c>
-      <c r="P194" s="17">
-        <f t="shared" si="171"/>
-        <v>178.86744894207425</v>
-      </c>
-      <c r="Q194" s="7"/>
+      <c r="P194" s="13">
+        <f>(P$188)/(($K$188*$N194)/($B193*($K$189+$N194))-1)</f>
+        <v>-115.42586545071727</v>
+      </c>
+      <c r="Q194" s="13">
+        <f>(Q$188)/(($K$188*$N194)/($B193*($K$189+$N194))-1)</f>
+        <v>-230.85173090143454</v>
+      </c>
+      <c r="R194" s="24"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
         <v>10</v>
       </c>
@@ -36086,50 +36166,50 @@
         <v>1.9011179997378887E-4</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>4.4206997873103683E-5</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>4.3705680871439547E-5</v>
       </c>
       <c r="E195" s="11">
         <v>10</v>
       </c>
-      <c r="F195" s="18">
-        <f t="shared" si="168"/>
+      <c r="F195" s="14">
+        <f t="shared" si="166"/>
         <v>52600.627637941056</v>
       </c>
-      <c r="G195" s="18">
-        <f t="shared" si="173"/>
+      <c r="G195" s="14">
+        <f t="shared" si="169"/>
         <v>226208.52989621754</v>
       </c>
-      <c r="H195" s="18">
-        <f t="shared" si="169"/>
+      <c r="H195" s="14">
+        <f t="shared" si="167"/>
         <v>228803.20820112707</v>
       </c>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+      <c r="J195" s="15"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="11">
-        <v>10</v>
-      </c>
-      <c r="N195" s="17">
-        <f>(N$187)/(($J$188*$M195)/($B195*($J$189+$M195))-1)</f>
+      <c r="M195" s="7"/>
+      <c r="N195" s="11">
+        <v>7</v>
+      </c>
+      <c r="O195" s="13">
+        <f>(O$188)/(($K$188*$N195)/($B194*($K$189+$N195))-1)</f>
         <v>0</v>
       </c>
-      <c r="O195" s="17">
-        <f t="shared" si="171"/>
-        <v>-422.25009682855728</v>
-      </c>
-      <c r="P195" s="17">
-        <f t="shared" si="171"/>
-        <v>-844.50019365711455</v>
-      </c>
-      <c r="Q195" s="7"/>
+      <c r="P195" s="13">
+        <f>(P$188)/(($K$188*$N195)/($B194*($K$189+$N195))-1)</f>
+        <v>89.433724471037124</v>
+      </c>
+      <c r="Q195" s="13">
+        <f>(Q$188)/(($K$188*$N195)/($B194*($K$189+$N195))-1)</f>
+        <v>178.86744894207425</v>
+      </c>
+      <c r="R195" s="24"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="11"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -36138,17 +36218,28 @@
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="7"/>
+      <c r="N196" s="11">
+        <v>10</v>
+      </c>
+      <c r="O196" s="13">
+        <f>(O$188)/(($K$188*$N196)/($B195*($K$189+$N196))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="P196" s="13">
+        <f>(P$188)/(($K$188*$N196)/($B195*($K$189+$N196))-1)</f>
+        <v>-422.25009682855728</v>
+      </c>
+      <c r="Q196" s="13">
+        <f>(Q$188)/(($K$188*$N196)/($B195*($K$189+$N196))-1)</f>
+        <v>-844.50019365711455</v>
+      </c>
+      <c r="R196" s="24"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -36162,12 +36253,23 @@
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
-      <c r="Q197" s="7"/>
+      <c r="N197" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O197" s="13">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="P197" s="13">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="Q197" s="13">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="R197" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -36186,7 +36288,7 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -36205,7 +36307,7 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -36224,7 +36326,7 @@
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -36243,7 +36345,7 @@
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="10"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -36262,7 +36364,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="10"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -36281,7 +36383,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="9"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -36300,7 +36402,7 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205" s="9"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -36319,7 +36421,7 @@
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="9"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -36338,7 +36440,7 @@
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207" s="9"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -36357,7 +36459,7 @@
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208" s="9"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -36434,19 +36536,23 @@
       <c r="Q211" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="I188:I189"/>
+    <mergeCell ref="I190:I191"/>
+    <mergeCell ref="I192:I193"/>
+    <mergeCell ref="O187:Q187"/>
+    <mergeCell ref="R189:R196"/>
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="E186:H186"/>
     <mergeCell ref="B32:Q32"/>
     <mergeCell ref="S32:AH32"/>
     <mergeCell ref="B107:Q107"/>
     <mergeCell ref="R107:AG107"/>
     <mergeCell ref="B134:Q134"/>
     <mergeCell ref="R134:AG134"/>
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="E186:H186"/>
-    <mergeCell ref="N186:P186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\Uni\4. FS\Biochemie Praktikum\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCF988-B33C-4E5C-AC9D-AD0D4EECEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4B947-6239-467B-B006-2C41CF008484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -679,6 +679,36 @@
   <si>
     <t>NADPH-Reaktionsrate  [mM/s]</t>
   </si>
+  <si>
+    <t>Probe</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Negativkontrolle</t>
+  </si>
+  <si>
+    <t>Positivkontrolle</t>
+  </si>
+  <si>
+    <t>Intesität</t>
+  </si>
+  <si>
+    <t>Konzentration [g/l]</t>
+  </si>
+  <si>
+    <t>Native PAGE</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +851,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -865,8 +895,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -16632,7 +16666,7 @@
   <dimension ref="A1:AH211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:D195"/>
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16641,7 +16675,8 @@
     <col min="7" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.06640625" customWidth="1"/>
     <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.06640625" customWidth="1"/>
     <col min="19" max="19" width="6.06640625" customWidth="1"/>
@@ -35847,7 +35882,7 @@
       <c r="Q189" s="13">
         <v>0</v>
       </c>
-      <c r="R189" s="24" t="s">
+      <c r="R189" s="25" t="s">
         <v>175</v>
       </c>
     </row>
@@ -35912,7 +35947,7 @@
         <f>(Q$188)/(($K$188*$N190)/($B189*($K$189+$N190))-1)</f>
         <v>14.229160494326266</v>
       </c>
-      <c r="R190" s="24"/>
+      <c r="R190" s="25"/>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
@@ -35973,7 +36008,7 @@
         <f>(Q$188)/(($K$188*$N191)/($B190*($K$189+$N191))-1)</f>
         <v>56.693667195326867</v>
       </c>
-      <c r="R191" s="24"/>
+      <c r="R191" s="25"/>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
@@ -36039,7 +36074,7 @@
         <f>(Q$188)/(($K$188*$N192)/($B191*($K$189+$N192))-1)</f>
         <v>-63.356383864593653</v>
       </c>
-      <c r="R192" s="24"/>
+      <c r="R192" s="25"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
@@ -36103,7 +36138,7 @@
         <f>(Q$188)/(($K$188*$N193)/($B192*($K$189+$N193))-1)</f>
         <v>-99.931543023172424</v>
       </c>
-      <c r="R193" s="24"/>
+      <c r="R193" s="25"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
@@ -36155,7 +36190,7 @@
         <f>(Q$188)/(($K$188*$N194)/($B193*($K$189+$N194))-1)</f>
         <v>-230.85173090143454</v>
       </c>
-      <c r="R194" s="24"/>
+      <c r="R194" s="25"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
@@ -36207,7 +36242,7 @@
         <f>(Q$188)/(($K$188*$N195)/($B194*($K$189+$N195))-1)</f>
         <v>178.86744894207425</v>
       </c>
-      <c r="R195" s="24"/>
+      <c r="R195" s="25"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="11"/>
@@ -36237,7 +36272,7 @@
         <f>(Q$188)/(($K$188*$N196)/($B195*($K$189+$N196))-1)</f>
         <v>-844.50019365711455</v>
       </c>
-      <c r="R196" s="24"/>
+      <c r="R196" s="25"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="10"/>
@@ -36317,9 +36352,11 @@
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
-      <c r="L200" s="7"/>
+      <c r="J200" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
@@ -36336,9 +36373,15 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
+      <c r="J201" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K201" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L201" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
@@ -36355,9 +36398,16 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
+      <c r="J202" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K202" s="14">
+        <v>12107</v>
+      </c>
+      <c r="L202" s="26">
+        <f>0.4*(K202/$K$202)</f>
+        <v>0.4</v>
+      </c>
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
       <c r="O202" s="7"/>
@@ -36374,9 +36424,16 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="7"/>
+      <c r="J203" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K203" s="14">
+        <v>443</v>
+      </c>
+      <c r="L203" s="26">
+        <f t="shared" ref="L203:L207" si="171">0.4*(K203/$K$202)</f>
+        <v>1.4636160898653673E-2</v>
+      </c>
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
       <c r="O203" s="7"/>
@@ -36393,9 +36450,16 @@
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
+      <c r="J204" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K204" s="14">
+        <v>8479</v>
+      </c>
+      <c r="L204" s="26">
+        <f t="shared" si="171"/>
+        <v>0.28013545882547292</v>
+      </c>
       <c r="M204" s="7"/>
       <c r="N204" s="7"/>
       <c r="O204" s="7"/>
@@ -36412,9 +36476,16 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
-      <c r="K205" s="7"/>
-      <c r="L205" s="7"/>
+      <c r="J205" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K205" s="14">
+        <v>15932</v>
+      </c>
+      <c r="L205" s="26">
+        <f t="shared" si="171"/>
+        <v>0.52637317254480886</v>
+      </c>
       <c r="M205" s="7"/>
       <c r="N205" s="7"/>
       <c r="O205" s="7"/>
@@ -36431,9 +36502,16 @@
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
-      <c r="K206" s="7"/>
-      <c r="L206" s="7"/>
+      <c r="J206" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K206" s="14">
+        <v>19551</v>
+      </c>
+      <c r="L206" s="26">
+        <f t="shared" si="171"/>
+        <v>0.64594036507805408</v>
+      </c>
       <c r="M206" s="7"/>
       <c r="N206" s="7"/>
       <c r="O206" s="7"/>
@@ -36450,9 +36528,16 @@
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="7"/>
-      <c r="L207" s="7"/>
+      <c r="J207" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K207" s="14">
+        <v>515</v>
+      </c>
+      <c r="L207" s="26">
+        <f t="shared" si="171"/>
+        <v>1.7014950028908897E-2</v>
+      </c>
       <c r="M207" s="7"/>
       <c r="N207" s="7"/>
       <c r="O207" s="7"/>
@@ -36536,7 +36621,8 @@
       <c r="Q211" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="J200:L200"/>
     <mergeCell ref="I188:I189"/>
     <mergeCell ref="I190:I191"/>
     <mergeCell ref="I192:I193"/>

--- a/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
+++ b/Tag 4 Auswertung/Enzymkinetik Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 4 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBF937-86A6-4DD3-88C6-FD143C234875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FB2B73-B9F4-4A6E-8972-870CEE85AD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -548,79 +548,7 @@
     <t>Fehler der mit 0M G6P korrigierten Daten</t>
   </si>
   <si>
-    <t>A0ATP</t>
-  </si>
-  <si>
-    <t>B0ATP</t>
-  </si>
-  <si>
-    <t>C0ATP</t>
-  </si>
-  <si>
-    <t>D0ATP</t>
-  </si>
-  <si>
-    <t>E0ATP</t>
-  </si>
-  <si>
-    <t>F0ATP</t>
-  </si>
-  <si>
-    <t>G0ATP</t>
-  </si>
-  <si>
-    <t>H0ATP</t>
-  </si>
-  <si>
     <t>mM NADPH</t>
-  </si>
-  <si>
-    <t>A6ATP</t>
-  </si>
-  <si>
-    <t>B6ATP</t>
-  </si>
-  <si>
-    <t>C6ATP</t>
-  </si>
-  <si>
-    <t>D6ATP</t>
-  </si>
-  <si>
-    <t>E6ATP</t>
-  </si>
-  <si>
-    <t>F6ATP</t>
-  </si>
-  <si>
-    <t>G6ATP</t>
-  </si>
-  <si>
-    <t>H6ATP</t>
-  </si>
-  <si>
-    <t>A12ATP</t>
-  </si>
-  <si>
-    <t>B12ATP</t>
-  </si>
-  <si>
-    <t>c12ATP</t>
-  </si>
-  <si>
-    <t>D12ATP</t>
-  </si>
-  <si>
-    <t>E12ATP</t>
-  </si>
-  <si>
-    <t>F12ATP</t>
-  </si>
-  <si>
-    <t>G12ATP</t>
-  </si>
-  <si>
-    <t>H12ATP</t>
   </si>
   <si>
     <t>Error mM NADPH</t>
@@ -832,12 +760,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -851,7 +831,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -900,6 +880,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1009,7 +1001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A0ATP</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1321,7 +1313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B0ATP</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1632,7 +1624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C0ATP</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1943,7 +1935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D0ATP</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,7 +2246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E0ATP</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2565,7 +2557,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F0ATP</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2876,7 +2868,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G0ATP</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3187,7 +3179,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H0ATP</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3916,7 +3908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A6ATP</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4227,7 +4219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B6ATP</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4538,7 +4530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C6ATP</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4849,7 +4841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D6ATP</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5160,7 +5152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E6ATP</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5471,7 +5463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F6ATP</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5782,7 +5774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G6ATP</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6093,7 +6085,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H6ATP</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6828,7 +6820,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A12ATP</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7139,7 +7131,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B12ATP</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7450,7 +7442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>c12ATP</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7761,7 +7753,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D12ATP</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8072,7 +8064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E12ATP</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8383,7 +8375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F12ATP</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8694,7 +8686,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G12ATP</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9005,7 +8997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H12ATP</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9731,7 +9723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10042,7 +10034,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B1-3</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10353,7 +10345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C1-3</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10664,7 +10656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D1-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10975,7 +10967,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E1-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11286,7 +11278,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F1-3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11597,7 +11589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G1-3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11908,7 +11900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H1-3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12639,7 +12631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A4-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12950,7 +12942,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B4-6</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13261,7 +13253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C4-6</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13572,7 +13564,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D4-6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13884,7 +13876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E4-6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14195,7 +14187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F4-6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14503,7 +14495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G4-6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14814,7 +14806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H4-6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15551,7 +15543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A7-9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15862,7 +15854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>B7-9</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16174,7 +16166,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C7-9</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16485,7 +16477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D7-9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16796,7 +16788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E7-9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17107,7 +17099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F7-9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17418,7 +17410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G7-9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17729,7 +17721,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H7-9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -23530,10 +23522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH211"/>
+  <dimension ref="A1:AH235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M131" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O140" sqref="O140"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36008,8 +36000,8 @@
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>112</v>
+      <c r="A136" s="4">
+        <v>0</v>
       </c>
       <c r="B136">
         <f>B109-B$109</f>
@@ -36141,8 +36133,8 @@
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>113</v>
+      <c r="A137" s="4">
+        <v>0</v>
       </c>
       <c r="B137">
         <f>B110-B$110</f>
@@ -36274,8 +36266,8 @@
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>114</v>
+      <c r="A138" s="4">
+        <v>0</v>
       </c>
       <c r="B138">
         <f>B111-B$111</f>
@@ -36407,8 +36399,8 @@
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>115</v>
+      <c r="A139" s="4">
+        <v>0.25</v>
       </c>
       <c r="B139">
         <f>B112-B$109</f>
@@ -36540,8 +36532,8 @@
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>116</v>
+      <c r="A140" s="4">
+        <v>0.25</v>
       </c>
       <c r="B140">
         <f>B113-B$110</f>
@@ -36673,8 +36665,8 @@
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>117</v>
+      <c r="A141" s="4">
+        <v>0.25</v>
       </c>
       <c r="B141">
         <f>B114-B$111</f>
@@ -36806,8 +36798,8 @@
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>118</v>
+      <c r="A142" s="4">
+        <v>0.5</v>
       </c>
       <c r="B142">
         <f>B115-B$109</f>
@@ -36939,8 +36931,8 @@
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
-        <v>119</v>
+      <c r="A143" s="4">
+        <v>0.5</v>
       </c>
       <c r="B143">
         <f>B116-B$110</f>
@@ -37072,8 +37064,8 @@
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
-        <v>120</v>
+      <c r="A144" s="4">
+        <v>0.5</v>
       </c>
       <c r="B144">
         <f>B117-B$111</f>
@@ -37205,8 +37197,8 @@
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>121</v>
+      <c r="A145" s="4">
+        <v>1</v>
       </c>
       <c r="B145">
         <f>B118-B$109</f>
@@ -37338,8 +37330,8 @@
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>122</v>
+      <c r="A146" s="4">
+        <v>1</v>
       </c>
       <c r="B146">
         <f>B119-B$110</f>
@@ -37471,8 +37463,8 @@
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>123</v>
+      <c r="A147" s="4">
+        <v>1</v>
       </c>
       <c r="B147">
         <f>B120-B$111</f>
@@ -37604,8 +37596,8 @@
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="s">
-        <v>124</v>
+      <c r="A148" s="4">
+        <v>2</v>
       </c>
       <c r="B148">
         <f>B121-B$109</f>
@@ -37737,8 +37729,8 @@
       </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>125</v>
+      <c r="A149" s="4">
+        <v>2</v>
       </c>
       <c r="B149">
         <f>B122-B$110</f>
@@ -37870,8 +37862,8 @@
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>126</v>
+      <c r="A150" s="4">
+        <v>2</v>
       </c>
       <c r="B150">
         <f>B123-B$111</f>
@@ -38003,8 +37995,8 @@
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>127</v>
+      <c r="A151" s="4">
+        <v>5</v>
       </c>
       <c r="B151">
         <f>B124-B$109</f>
@@ -38136,8 +38128,8 @@
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
-        <v>128</v>
+      <c r="A152" s="4">
+        <v>5</v>
       </c>
       <c r="B152">
         <f>B125-B$110</f>
@@ -38269,8 +38261,8 @@
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>129</v>
+      <c r="A153" s="4">
+        <v>5</v>
       </c>
       <c r="B153">
         <f>B126-B$111</f>
@@ -38402,8 +38394,8 @@
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
-        <v>130</v>
+      <c r="A154" s="4">
+        <v>7</v>
       </c>
       <c r="B154">
         <f>B127-B$109</f>
@@ -38535,8 +38527,8 @@
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="s">
-        <v>131</v>
+      <c r="A155" s="4">
+        <v>7</v>
       </c>
       <c r="B155">
         <f>B128-B$110</f>
@@ -38668,8 +38660,8 @@
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>132</v>
+      <c r="A156" s="4">
+        <v>7</v>
       </c>
       <c r="B156">
         <f>B129-B$111</f>
@@ -38801,8 +38793,8 @@
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>133</v>
+      <c r="A157" s="4">
+        <v>10</v>
       </c>
       <c r="B157">
         <f>B130-B$109</f>
@@ -38934,8 +38926,8 @@
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>134</v>
+      <c r="A158" s="4">
+        <v>10</v>
       </c>
       <c r="B158">
         <f>B131-B$110</f>
@@ -39067,8 +39059,8 @@
       </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
-        <v>135</v>
+      <c r="A159" s="4">
+        <v>10</v>
       </c>
       <c r="B159">
         <f>B132-B$111</f>
@@ -39201,7 +39193,7 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B160" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C160" s="22"/>
       <c r="D160" s="22"/>
@@ -39219,7 +39211,7 @@
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
       <c r="R160" s="22" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="S160" s="22"/>
       <c r="T160" s="22"/>
@@ -39336,8 +39328,8 @@
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
-        <v>140</v>
+      <c r="A162" s="4">
+        <v>0</v>
       </c>
       <c r="B162">
         <f>B136/(6.22*0.78)</f>
@@ -39469,8 +39461,8 @@
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
-        <v>141</v>
+      <c r="A163" s="4">
+        <v>0.25</v>
       </c>
       <c r="B163">
         <f>B139/(6.22*0.78)</f>
@@ -39602,8 +39594,8 @@
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>142</v>
+      <c r="A164" s="4">
+        <v>0.5</v>
       </c>
       <c r="B164">
         <f>B142/(6.22*0.78)</f>
@@ -39735,8 +39727,8 @@
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
-        <v>143</v>
+      <c r="A165" s="4">
+        <v>1</v>
       </c>
       <c r="B165">
         <f>B145/(6.22*0.78)</f>
@@ -39868,8 +39860,8 @@
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="s">
-        <v>144</v>
+      <c r="A166" s="4">
+        <v>2</v>
       </c>
       <c r="B166">
         <f>B148/(6.22*0.78)</f>
@@ -40001,8 +39993,8 @@
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
-        <v>145</v>
+      <c r="A167" s="4">
+        <v>5</v>
       </c>
       <c r="B167">
         <f>B151/(6.22*0.78)</f>
@@ -40134,8 +40126,8 @@
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>146</v>
+      <c r="A168" s="4">
+        <v>7</v>
       </c>
       <c r="B168">
         <f>B154/(6.22*0.78)</f>
@@ -40267,8 +40259,8 @@
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>147</v>
+      <c r="A169" s="4">
+        <v>10</v>
       </c>
       <c r="B169">
         <f>B157/(6.22*0.78)</f>
@@ -40400,8 +40392,8 @@
       </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
-        <v>149</v>
+      <c r="A170" s="4">
+        <v>0</v>
       </c>
       <c r="B170">
         <f>B137/(6.22*0.78)</f>
@@ -40533,8 +40525,8 @@
       </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>150</v>
+      <c r="A171" s="4">
+        <v>0.25</v>
       </c>
       <c r="B171">
         <f>B140/(6.22*0.78)</f>
@@ -40666,8 +40658,8 @@
       </c>
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
-        <v>151</v>
+      <c r="A172" s="4">
+        <v>0.5</v>
       </c>
       <c r="B172">
         <f>B143/(6.22*0.78)</f>
@@ -40799,8 +40791,8 @@
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
-        <v>152</v>
+      <c r="A173" s="4">
+        <v>1</v>
       </c>
       <c r="B173">
         <f>B146/(6.22*0.78)</f>
@@ -40932,8 +40924,8 @@
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A174" s="4" t="s">
-        <v>153</v>
+      <c r="A174" s="4">
+        <v>2</v>
       </c>
       <c r="B174">
         <f>B149/(6.22*0.78)</f>
@@ -41065,8 +41057,8 @@
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="s">
-        <v>154</v>
+      <c r="A175" s="4">
+        <v>5</v>
       </c>
       <c r="B175">
         <f>B152/(6.22*0.78)</f>
@@ -41198,8 +41190,8 @@
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>155</v>
+      <c r="A176" s="4">
+        <v>7</v>
       </c>
       <c r="B176">
         <f>B155/(6.22*0.78)</f>
@@ -41331,8 +41323,8 @@
       </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
-        <v>156</v>
+      <c r="A177" s="4">
+        <v>10</v>
       </c>
       <c r="B177">
         <f>B158/(6.22*0.78)</f>
@@ -41464,8 +41456,8 @@
       </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
-        <v>157</v>
+      <c r="A178" s="4">
+        <v>0</v>
       </c>
       <c r="B178">
         <f>B138/(6.22*0.78)</f>
@@ -41597,8 +41589,8 @@
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
-        <v>158</v>
+      <c r="A179" s="4">
+        <v>0.25</v>
       </c>
       <c r="B179">
         <f>B141/(6.22*0.78)</f>
@@ -41730,8 +41722,8 @@
       </c>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
-        <v>159</v>
+      <c r="A180" s="4">
+        <v>0.5</v>
       </c>
       <c r="B180">
         <f>B144/(6.22*0.78)</f>
@@ -41863,8 +41855,8 @@
       </c>
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>160</v>
+      <c r="A181" s="4">
+        <v>1</v>
       </c>
       <c r="B181">
         <f>B147/(6.22*0.78)</f>
@@ -41996,8 +41988,8 @@
       </c>
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
-        <v>161</v>
+      <c r="A182" s="4">
+        <v>2</v>
       </c>
       <c r="B182">
         <f>B150/(6.22*0.78)</f>
@@ -42129,8 +42121,8 @@
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
-        <v>162</v>
+      <c r="A183" s="4">
+        <v>5</v>
       </c>
       <c r="B183">
         <f>B153/(6.22*0.78)</f>
@@ -42262,8 +42254,8 @@
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>163</v>
+      <c r="A184" s="4">
+        <v>7</v>
       </c>
       <c r="B184">
         <f>B156/(6.22*0.78)</f>
@@ -42395,8 +42387,8 @@
       </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>164</v>
+      <c r="A185" s="4">
+        <v>10</v>
       </c>
       <c r="B185">
         <f>B159/(6.22*0.78)</f>
@@ -42529,13 +42521,13 @@
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" s="22" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
       <c r="E186" s="22" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F186" s="22"/>
       <c r="G186" s="22"/>
@@ -42564,52 +42556,52 @@
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="M187" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="N187" s="8"/>
       <c r="O187" s="22" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="22"/>
       <c r="R187" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
@@ -42659,10 +42651,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I188" s="20" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J188" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="K188" s="16">
         <f>(SLOPE(F189:F195,$E$189:$E$195)^(-1))</f>
@@ -42677,7 +42669,7 @@
         <v>4.4760299419995727E-5</v>
       </c>
       <c r="N188" s="12" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="O188" s="5">
         <v>0</v>
@@ -42723,7 +42715,7 @@
       </c>
       <c r="I189" s="20"/>
       <c r="J189" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K189" s="16">
         <f>INTERCEPT(F189:F195,$E$189:$E$195)*K188</f>
@@ -42750,7 +42742,7 @@
         <v>0</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.35">
@@ -42785,10 +42777,10 @@
         <v>13742.191858273463</v>
       </c>
       <c r="I190" s="20" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J190" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="K190" s="16">
         <v>2.0780000000000001E-4</v>
@@ -42849,7 +42841,7 @@
       </c>
       <c r="I191" s="20"/>
       <c r="J191" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K191" s="16">
         <v>0.22189999999999999</v>
@@ -42905,14 +42897,14 @@
         <v>29026.858980105895</v>
       </c>
       <c r="H192" s="14">
-        <f t="shared" si="167"/>
+        <f>$E192/D192</f>
         <v>32751.340428563675</v>
       </c>
       <c r="I192" s="21" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K192" s="7">
         <f>ABS(K188-K190)</f>
@@ -42976,7 +42968,7 @@
       </c>
       <c r="I193" s="21"/>
       <c r="J193" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K193" s="7">
         <f>ABS(K189-K191)</f>
@@ -43156,7 +43148,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="17" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O197" s="13">
         <v>4.5540000000000003</v>
@@ -43168,7 +43160,7 @@
         <v>4.5540000000000003</v>
       </c>
       <c r="R197" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.35">
@@ -43220,7 +43212,7 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="19" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
@@ -43241,13 +43233,13 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L201" s="15" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
@@ -43266,7 +43258,7 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="K202" s="14">
         <v>12107</v>
@@ -43292,7 +43284,7 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K203" s="14">
         <v>443</v>
@@ -43318,7 +43310,7 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K204" s="14">
         <v>8479</v>
@@ -43344,7 +43336,7 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K205" s="14">
         <v>15932</v>
@@ -43370,7 +43362,7 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="K206" s="14">
         <v>19551</v>
@@ -43396,7 +43388,7 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="K207" s="14">
         <v>515</v>
@@ -43487,6 +43479,186 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
     </row>
+    <row r="219" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="220" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I220" s="27">
+        <v>0.35910001000000003</v>
+      </c>
+      <c r="J220" s="28">
+        <v>0.3175</v>
+      </c>
+      <c r="K220" s="28">
+        <v>0.29750000999999998</v>
+      </c>
+      <c r="L220" s="28">
+        <v>0.44260000999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I221" s="29">
+        <v>0.34330000999999999</v>
+      </c>
+      <c r="J221" s="30">
+        <v>0.2978999</v>
+      </c>
+      <c r="K221" s="30">
+        <v>0.27500001000000002</v>
+      </c>
+      <c r="L221" s="30">
+        <v>0.38789998999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I222" s="29">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="J222" s="30">
+        <v>0.25470000999999998</v>
+      </c>
+      <c r="K222" s="30">
+        <v>0.25279998999999997</v>
+      </c>
+      <c r="L222" s="30">
+        <v>0.38929998999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I225">
+        <f t="shared" ref="I225:L225" si="173">AVERAGE(I220:I222)</f>
+        <v>0.33573333999999999</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="173"/>
+        <v>0.29003330333333333</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="173"/>
+        <v>0.27510000333333334</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="173"/>
+        <v>0.40659999666666669</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="228" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I228" s="27">
+        <v>1.1835999500000001</v>
+      </c>
+      <c r="J228" s="28">
+        <v>1.0217000199999999</v>
+      </c>
+      <c r="K228" s="28">
+        <v>1.08220005</v>
+      </c>
+      <c r="L228" s="28">
+        <v>1.1606999600000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I229" s="29">
+        <v>1.1940000099999999</v>
+      </c>
+      <c r="J229" s="30">
+        <v>1.08010001</v>
+      </c>
+      <c r="K229" s="30">
+        <v>0.91799998000000005</v>
+      </c>
+      <c r="L229" s="30">
+        <v>1.1477999699999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I230" s="29">
+        <v>0.98809999000000004</v>
+      </c>
+      <c r="J230" s="30">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="K230" s="30">
+        <v>0.80849998999999995</v>
+      </c>
+      <c r="L230" s="30">
+        <v>0.86110001999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="27">
+        <v>1.01129997</v>
+      </c>
+      <c r="B231" s="28">
+        <v>1.2884999500000001</v>
+      </c>
+      <c r="C231" s="28">
+        <v>1.14020002</v>
+      </c>
+      <c r="D231" s="28">
+        <v>0.30720001000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="29">
+        <v>1.24469995</v>
+      </c>
+      <c r="B232" s="30">
+        <v>1.2287000400000001</v>
+      </c>
+      <c r="C232" s="30">
+        <v>1.06719995</v>
+      </c>
+      <c r="D232" s="30">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="I232">
+        <f>AVERAGE(I228:I230)</f>
+        <v>1.1218999833333332</v>
+      </c>
+      <c r="J232">
+        <f t="shared" ref="J232:L232" si="174">AVERAGE(J228:J230)</f>
+        <v>1.0177666766666666</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="174"/>
+        <v>0.93623334000000014</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="174"/>
+        <v>1.0565333166666666</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="29">
+        <v>1.1833000199999999</v>
+      </c>
+      <c r="B233" s="30">
+        <v>1.13999999</v>
+      </c>
+      <c r="C233" s="30">
+        <v>1.1390000600000001</v>
+      </c>
+      <c r="D233" s="30">
+        <v>0.30280000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <f>_xlfn.STDEV.S(A231:A232)</f>
+        <v>0.16503870858680497</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ref="B235:D235" si="175">_xlfn.STDEV.S(B231:B232)</f>
+        <v>4.2284921875345202E-2</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="175"/>
+        <v>5.1618844524092634E-2</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="175"/>
+        <v>3.111276908288628E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B32:Q32"/>
